--- a/doc/50_単体テスト(UT)/01_UCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_別紙.xlsx
+++ b/doc/50_単体テスト(UT)/01_UCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_別紙.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\EB研修\pethotel\50_単体テスト(UT)\01_UCL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xylbk\Documents\certificate-online\doc\50_単体テスト(UT)\01_UCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2943D0-7F7A-46B5-9EF6-EC1696C9AF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127A9BF5-BB50-4C9A-A60E-8205C4480E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ａ-画面レイアウト" sheetId="6" r:id="rId1"/>
@@ -690,7 +690,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -700,7 +700,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -725,7 +725,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -735,7 +735,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2149,7 +2149,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2157,14 +2157,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2173,14 +2173,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2188,13 +2188,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2202,7 +2202,7 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2211,7 +2211,7 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2219,7 +2219,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2228,7 +2228,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2237,7 +2237,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2245,7 +2245,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2273,7 +2273,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2282,14 +2282,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2298,7 +2298,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2312,14 +2312,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -3219,6 +3219,138 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3236,37 +3368,82 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3278,113 +3455,92 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3399,37 +3555,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3446,22 +3572,127 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3473,15 +3704,6 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3491,152 +3713,86 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3646,162 +3802,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4202,56 +4202,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F9333B-AB08-4AA6-B1AB-3242D8418782}">
   <dimension ref="B1:AB57"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E1" zoomScale="40" zoomScaleNormal="55" zoomScaleSheetLayoutView="40" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="8.69921875" style="23"/>
-    <col min="7" max="7" width="14.69921875" style="23" customWidth="1"/>
-    <col min="8" max="12" width="8.69921875" style="23"/>
+    <col min="3" max="6" width="8.75" style="23"/>
+    <col min="7" max="7" width="14.75" style="23" customWidth="1"/>
+    <col min="8" max="12" width="8.75" style="23"/>
     <col min="13" max="13" width="63.5" style="23" customWidth="1"/>
-    <col min="14" max="14" width="22.69921875" style="23" customWidth="1"/>
-    <col min="15" max="15" width="1.59765625" style="23" customWidth="1"/>
-    <col min="16" max="17" width="22.69921875" style="23" customWidth="1"/>
-    <col min="18" max="18" width="32.09765625" style="23" customWidth="1"/>
-    <col min="19" max="21" width="22.69921875" style="23" customWidth="1"/>
+    <col min="14" max="14" width="22.75" style="23" customWidth="1"/>
+    <col min="15" max="15" width="1.625" style="23" customWidth="1"/>
+    <col min="16" max="17" width="22.75" style="23" customWidth="1"/>
+    <col min="18" max="18" width="32.125" style="23" customWidth="1"/>
+    <col min="19" max="21" width="22.75" style="23" customWidth="1"/>
     <col min="22" max="22" width="21" style="23" customWidth="1"/>
-    <col min="23" max="23" width="8.69921875" style="23"/>
-    <col min="24" max="24" width="53.09765625" style="23" customWidth="1"/>
+    <col min="23" max="23" width="8.75" style="23"/>
+    <col min="24" max="24" width="53.125" style="23" customWidth="1"/>
     <col min="25" max="25" width="32.5" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.69921875" style="1"/>
+    <col min="26" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="2:28" ht="15" thickBot="1">
       <c r="P1" s="23" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="2:28" ht="37.049999999999997" customHeight="1">
-      <c r="B2" s="72" t="s">
+    <row r="2" spans="2:28" ht="37.15" customHeight="1">
+      <c r="B2" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="74"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
       <c r="N2" s="1"/>
       <c r="O2" s="16"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="X2" s="24"/>
@@ -4260,47 +4260,47 @@
       <c r="AA2" s="25"/>
       <c r="AB2" s="25"/>
     </row>
-    <row r="3" spans="2:28" ht="38.549999999999997" customHeight="1">
+    <row r="3" spans="2:28" ht="38.65" customHeight="1">
       <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="D3" s="76"/>
+      <c r="D3" s="104"/>
       <c r="E3" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="105" t="s">
         <v>116</v>
       </c>
-      <c r="G3" s="76"/>
+      <c r="G3" s="104"/>
       <c r="H3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="103" t="s">
         <v>183</v>
       </c>
-      <c r="J3" s="75"/>
+      <c r="J3" s="103"/>
       <c r="K3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="78">
+      <c r="L3" s="106">
         <v>45069</v>
       </c>
-      <c r="M3" s="79"/>
+      <c r="M3" s="107"/>
       <c r="N3" s="1"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="X3" s="28"/>
       <c r="Y3" s="28"/>
     </row>
-    <row r="4" spans="2:28" ht="32.4">
+    <row r="4" spans="2:28" ht="25.5">
       <c r="B4" s="29"/>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -4367,112 +4367,112 @@
       <c r="M7" s="33"/>
       <c r="N7" s="1"/>
       <c r="O7" s="16"/>
-      <c r="P7" s="66" t="s">
+      <c r="P7" s="110" t="s">
         <v>138</v>
       </c>
-      <c r="Q7" s="66" t="s">
+      <c r="Q7" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="R7" s="65" t="s">
+      <c r="R7" s="109" t="s">
         <v>139</v>
       </c>
-      <c r="S7" s="66"/>
-      <c r="T7" s="66"/>
-      <c r="U7" s="66"/>
+      <c r="S7" s="110"/>
+      <c r="T7" s="110"/>
+      <c r="U7" s="110"/>
     </row>
     <row r="8" spans="2:28">
       <c r="B8" s="32"/>
       <c r="M8" s="33"/>
       <c r="O8" s="60"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="66"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="110"/>
+      <c r="R8" s="109"/>
+      <c r="S8" s="110"/>
+      <c r="T8" s="110"/>
+      <c r="U8" s="110"/>
     </row>
     <row r="9" spans="2:28">
       <c r="B9" s="32"/>
       <c r="M9" s="33"/>
       <c r="O9" s="60"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
-    </row>
-    <row r="10" spans="2:28" ht="32.4">
+      <c r="P9" s="110"/>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="110"/>
+      <c r="T9" s="110"/>
+      <c r="U9" s="110"/>
+    </row>
+    <row r="10" spans="2:28" ht="25.5">
       <c r="B10" s="32"/>
       <c r="I10" s="34"/>
       <c r="M10" s="33"/>
       <c r="O10" s="60"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="110"/>
+      <c r="R10" s="109"/>
+      <c r="S10" s="110"/>
+      <c r="T10" s="110"/>
+      <c r="U10" s="110"/>
     </row>
     <row r="11" spans="2:28">
       <c r="B11" s="32"/>
       <c r="M11" s="33"/>
       <c r="O11" s="60"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="65"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-    </row>
-    <row r="12" spans="2:28">
+      <c r="P11" s="110"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="109"/>
+      <c r="S11" s="110"/>
+      <c r="T11" s="110"/>
+      <c r="U11" s="110"/>
+    </row>
+    <row r="12" spans="2:28" ht="16.5">
       <c r="B12" s="32"/>
       <c r="G12" s="35"/>
       <c r="K12" s="35"/>
       <c r="M12" s="33"/>
       <c r="O12" s="60"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
+      <c r="P12" s="110"/>
+      <c r="Q12" s="110"/>
+      <c r="R12" s="109"/>
+      <c r="S12" s="110"/>
+      <c r="T12" s="110"/>
+      <c r="U12" s="110"/>
     </row>
     <row r="13" spans="2:28">
       <c r="B13" s="32"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="67"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="63"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="111"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="97"/>
       <c r="M13" s="33"/>
       <c r="O13" s="60"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="66"/>
+      <c r="P13" s="110"/>
+      <c r="Q13" s="110"/>
+      <c r="R13" s="109"/>
+      <c r="S13" s="110"/>
+      <c r="T13" s="110"/>
+      <c r="U13" s="110"/>
     </row>
     <row r="14" spans="2:28">
       <c r="B14" s="32"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
       <c r="M14" s="33"/>
       <c r="O14" s="60"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="110"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="110"/>
     </row>
     <row r="15" spans="2:28">
       <c r="B15" s="32"/>
       <c r="M15" s="33"/>
     </row>
-    <row r="16" spans="2:28">
+    <row r="16" spans="2:28" ht="16.5">
       <c r="B16" s="32"/>
       <c r="G16" s="35"/>
       <c r="K16" s="35"/>
@@ -4480,25 +4480,25 @@
     </row>
     <row r="17" spans="2:25">
       <c r="B17" s="32"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="63"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="63"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="97"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="97"/>
       <c r="M17" s="33"/>
     </row>
     <row r="18" spans="2:25">
       <c r="B18" s="32"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97"/>
       <c r="M18" s="33"/>
     </row>
     <row r="19" spans="2:25">
       <c r="B19" s="32"/>
       <c r="M19" s="33"/>
     </row>
-    <row r="20" spans="2:25">
+    <row r="20" spans="2:25" ht="16.5">
       <c r="B20" s="32"/>
       <c r="G20" s="35"/>
       <c r="K20" s="35"/>
@@ -4506,18 +4506,18 @@
     </row>
     <row r="21" spans="2:25">
       <c r="B21" s="32"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="63"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="63"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="97"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="97"/>
       <c r="M21" s="33"/>
     </row>
     <row r="22" spans="2:25">
       <c r="B22" s="32"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
       <c r="M22" s="33"/>
     </row>
     <row r="23" spans="2:25">
@@ -4530,12 +4530,12 @@
     </row>
     <row r="25" spans="2:25">
       <c r="B25" s="32"/>
-      <c r="G25" s="69"/>
+      <c r="G25" s="96"/>
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="2:25">
       <c r="B26" s="32"/>
-      <c r="G26" s="63"/>
+      <c r="G26" s="97"/>
       <c r="M26" s="33"/>
       <c r="Y26" s="36"/>
     </row>
@@ -4666,7 +4666,7 @@
       <c r="B56" s="32"/>
       <c r="M56" s="33"/>
     </row>
-    <row r="57" spans="2:13" ht="18.600000000000001" thickBot="1">
+    <row r="57" spans="2:13" ht="15" thickBot="1">
       <c r="B57" s="39"/>
       <c r="C57" s="40"/>
       <c r="D57" s="40"/>
@@ -4682,6 +4682,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="P7:P14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="R7:R14"/>
+    <mergeCell ref="U7:U14"/>
+    <mergeCell ref="T7:T14"/>
+    <mergeCell ref="S7:S14"/>
+    <mergeCell ref="Q7:Q14"/>
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="P2:S3"/>
     <mergeCell ref="B2:M2"/>
@@ -4698,15 +4707,6 @@
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="K21:K22"/>
-    <mergeCell ref="R7:R14"/>
-    <mergeCell ref="U7:U14"/>
-    <mergeCell ref="T7:T14"/>
-    <mergeCell ref="S7:S14"/>
-    <mergeCell ref="Q7:Q14"/>
-    <mergeCell ref="P7:P14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4727,83 +4727,83 @@
   </sheetPr>
   <dimension ref="C1:AA62"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScale="55" zoomScaleNormal="53" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="53" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="2.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.09765625" style="1" customWidth="1"/>
-    <col min="5" max="18" width="12.19921875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="16.09765625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="16.8984375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="2.19921875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="30.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.59765625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="34.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="1" customWidth="1"/>
+    <col min="5" max="18" width="12.25" style="1" customWidth="1"/>
+    <col min="19" max="19" width="16.125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16.875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="2.25" style="1" customWidth="1"/>
+    <col min="22" max="22" width="30.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="34.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.125" style="1" customWidth="1"/>
     <col min="26" max="26" width="18" style="1" customWidth="1"/>
-    <col min="27" max="27" width="25.3984375" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.69921875" style="1"/>
+    <col min="27" max="27" width="25.375" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:27" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="3:27" ht="37.049999999999997" customHeight="1">
-      <c r="C2" s="102" t="s">
+    <row r="1" spans="3:27" ht="15" thickBot="1"/>
+    <row r="2" spans="3:27" ht="37.15" customHeight="1">
+      <c r="C2" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="105"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="125"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="70" t="s">
+      <c r="V2" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-    </row>
-    <row r="3" spans="3:27" ht="88.8" customHeight="1" thickBot="1">
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+    </row>
+    <row r="3" spans="3:27" ht="88.9" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="106" t="s">
+      <c r="E3" s="126" t="s">
         <v>184</v>
       </c>
-      <c r="F3" s="106"/>
-      <c r="G3" s="107"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="127"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="106" t="s">
+      <c r="I3" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="106"/>
-      <c r="K3" s="107"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="127"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="106" t="s">
+      <c r="M3" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="N3" s="106"/>
-      <c r="O3" s="107"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="127"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
@@ -4813,10 +4813,10 @@
       </c>
       <c r="S3" s="10"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="99"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
     </row>
     <row r="4" spans="3:27" ht="60.6" customHeight="1" thickBot="1">
       <c r="C4" s="2"/>
@@ -4831,57 +4831,57 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:27">
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="111" t="s">
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="K5" s="112"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="111" t="s">
+      <c r="K5" s="132"/>
+      <c r="L5" s="133"/>
+      <c r="M5" s="131" t="s">
         <v>100</v>
       </c>
-      <c r="N5" s="112"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="111" t="s">
+      <c r="N5" s="132"/>
+      <c r="O5" s="133"/>
+      <c r="P5" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="117"/>
+      <c r="Q5" s="132"/>
+      <c r="R5" s="132"/>
+      <c r="S5" s="137"/>
       <c r="U5" s="16"/>
     </row>
-    <row r="6" spans="3:27" ht="18.600000000000001" thickBot="1">
-      <c r="C6" s="108"/>
-      <c r="D6" s="110" t="s">
+    <row r="6" spans="3:27" ht="15" thickBot="1">
+      <c r="C6" s="128"/>
+      <c r="D6" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110" t="s">
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="116"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="116"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="115"/>
-      <c r="R6" s="115"/>
-      <c r="S6" s="118"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="134"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="136"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="135"/>
+      <c r="R6" s="135"/>
+      <c r="S6" s="138"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>105</v>
@@ -4902,36 +4902,36 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="3:27" ht="36">
+    <row r="7" spans="3:27" ht="28.5">
       <c r="C7" s="11">
         <v>1</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88" t="s">
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88" t="s">
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88" t="s">
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="90" t="s">
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="91"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="117"/>
       <c r="U7" s="16"/>
       <c r="V7" s="21" t="s">
         <v>141</v>
@@ -4946,36 +4946,36 @@
       <c r="Z7" s="19"/>
       <c r="AA7" s="19"/>
     </row>
-    <row r="8" spans="3:27" ht="36">
+    <row r="8" spans="3:27" ht="28.5">
       <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83" t="s">
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="87" t="s">
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="83">
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="113">
         <v>8</v>
       </c>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83" t="s">
+      <c r="N8" s="113"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="83"/>
-      <c r="S8" s="89"/>
+      <c r="Q8" s="113"/>
+      <c r="R8" s="113"/>
+      <c r="S8" s="115"/>
       <c r="U8" s="16"/>
       <c r="V8" s="21" t="s">
         <v>142</v>
@@ -4990,36 +4990,36 @@
       <c r="Z8" s="19"/>
       <c r="AA8" s="19"/>
     </row>
-    <row r="9" spans="3:27" ht="36">
+    <row r="9" spans="3:27" ht="28.5">
       <c r="C9" s="11">
         <v>3</v>
       </c>
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="80" t="s">
+      <c r="E9" s="140"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="81"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="87" t="s">
+      <c r="H9" s="140"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="80">
+      <c r="K9" s="114"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="139">
         <v>5</v>
       </c>
-      <c r="N9" s="81"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="80" t="s">
+      <c r="N9" s="140"/>
+      <c r="O9" s="141"/>
+      <c r="P9" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="81"/>
-      <c r="S9" s="92"/>
+      <c r="Q9" s="140"/>
+      <c r="R9" s="140"/>
+      <c r="S9" s="145"/>
       <c r="U9" s="16"/>
       <c r="V9" s="21" t="s">
         <v>143</v>
@@ -5034,34 +5034,34 @@
       <c r="Z9" s="19"/>
       <c r="AA9" s="19"/>
     </row>
-    <row r="10" spans="3:27" ht="36">
+    <row r="10" spans="3:27" ht="28.5">
       <c r="C10" s="11">
         <v>4</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="81"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="99" t="s">
+      <c r="E10" s="140"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="100"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="84" t="s">
+      <c r="H10" s="143"/>
+      <c r="I10" s="144"/>
+      <c r="J10" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="85"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="80">
+      <c r="K10" s="119"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="139">
         <v>50</v>
       </c>
-      <c r="N10" s="81"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="92"/>
+      <c r="N10" s="140"/>
+      <c r="O10" s="141"/>
+      <c r="P10" s="139"/>
+      <c r="Q10" s="140"/>
+      <c r="R10" s="140"/>
+      <c r="S10" s="145"/>
       <c r="U10" s="16"/>
       <c r="V10" s="21" t="s">
         <v>144</v>
@@ -5076,34 +5076,34 @@
       <c r="Z10" s="19"/>
       <c r="AA10" s="19"/>
     </row>
-    <row r="11" spans="3:27" ht="36">
+    <row r="11" spans="3:27" ht="28.5">
       <c r="C11" s="11">
         <v>5</v>
       </c>
-      <c r="D11" s="83" t="s">
+      <c r="D11" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83" t="s">
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="87" t="s">
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="83">
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="113">
         <v>50</v>
       </c>
-      <c r="N11" s="83"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="83"/>
-      <c r="S11" s="89"/>
+      <c r="N11" s="113"/>
+      <c r="O11" s="113"/>
+      <c r="P11" s="113"/>
+      <c r="Q11" s="113"/>
+      <c r="R11" s="113"/>
+      <c r="S11" s="115"/>
       <c r="U11" s="16"/>
       <c r="V11" s="21" t="s">
         <v>145</v>
@@ -5118,36 +5118,36 @@
       <c r="Z11" s="19"/>
       <c r="AA11" s="19"/>
     </row>
-    <row r="12" spans="3:27" ht="36">
+    <row r="12" spans="3:27" ht="28.5">
       <c r="C12" s="11">
         <v>6</v>
       </c>
-      <c r="D12" s="80" t="s">
+      <c r="D12" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="81"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="80" t="s">
+      <c r="E12" s="140"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="81"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="87" t="s">
+      <c r="H12" s="140"/>
+      <c r="I12" s="141"/>
+      <c r="J12" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="80">
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="139">
         <v>10</v>
       </c>
-      <c r="N12" s="81"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="80" t="s">
+      <c r="N12" s="140"/>
+      <c r="O12" s="141"/>
+      <c r="P12" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="81"/>
-      <c r="S12" s="92"/>
+      <c r="Q12" s="140"/>
+      <c r="R12" s="140"/>
+      <c r="S12" s="145"/>
       <c r="U12" s="16"/>
       <c r="V12" s="21" t="s">
         <v>146</v>
@@ -5162,34 +5162,34 @@
       <c r="Z12" s="19"/>
       <c r="AA12" s="19"/>
     </row>
-    <row r="13" spans="3:27" ht="36">
+    <row r="13" spans="3:27" ht="28.5">
       <c r="C13" s="11">
         <v>7</v>
       </c>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="81"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="94" t="s">
+      <c r="E13" s="140"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="146" t="s">
         <v>98</v>
       </c>
-      <c r="H13" s="95"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="84" t="s">
+      <c r="H13" s="147"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="85"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="80">
+      <c r="K13" s="119"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="139">
         <v>50</v>
       </c>
-      <c r="N13" s="81"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="92"/>
+      <c r="N13" s="140"/>
+      <c r="O13" s="141"/>
+      <c r="P13" s="139"/>
+      <c r="Q13" s="140"/>
+      <c r="R13" s="140"/>
+      <c r="S13" s="145"/>
       <c r="U13" s="16"/>
       <c r="V13" s="21" t="s">
         <v>147</v>
@@ -5204,34 +5204,34 @@
       <c r="Z13" s="19"/>
       <c r="AA13" s="19"/>
     </row>
-    <row r="14" spans="3:27" ht="36">
+    <row r="14" spans="3:27" ht="28.5">
       <c r="C14" s="11">
         <v>8</v>
       </c>
-      <c r="D14" s="83" t="s">
+      <c r="D14" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="93" t="s">
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="151" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="87" t="s">
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="83">
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="113">
         <v>50</v>
       </c>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="89"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="113"/>
+      <c r="P14" s="113"/>
+      <c r="Q14" s="113"/>
+      <c r="R14" s="113"/>
+      <c r="S14" s="115"/>
       <c r="U14" s="16"/>
       <c r="V14" s="21" t="s">
         <v>148</v>
@@ -5246,36 +5246,36 @@
       <c r="Z14" s="19"/>
       <c r="AA14" s="19"/>
     </row>
-    <row r="15" spans="3:27" ht="36">
+    <row r="15" spans="3:27" ht="28.5">
       <c r="C15" s="11">
         <v>9</v>
       </c>
-      <c r="D15" s="80" t="s">
+      <c r="D15" s="139" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="81"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="94" t="s">
+      <c r="E15" s="140"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="146" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="95"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="84" t="s">
+      <c r="H15" s="147"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="85"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="80">
+      <c r="K15" s="119"/>
+      <c r="L15" s="120"/>
+      <c r="M15" s="139">
         <v>16</v>
       </c>
-      <c r="N15" s="81"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="80" t="s">
+      <c r="N15" s="140"/>
+      <c r="O15" s="141"/>
+      <c r="P15" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="81"/>
-      <c r="S15" s="92"/>
+      <c r="Q15" s="140"/>
+      <c r="R15" s="140"/>
+      <c r="S15" s="145"/>
       <c r="U15" s="16"/>
       <c r="V15" s="21" t="s">
         <v>149</v>
@@ -5290,34 +5290,34 @@
       <c r="Z15" s="19"/>
       <c r="AA15" s="19"/>
     </row>
-    <row r="16" spans="3:27" ht="36">
+    <row r="16" spans="3:27" ht="28.5">
       <c r="C16" s="11">
         <v>10</v>
       </c>
-      <c r="D16" s="80" t="s">
+      <c r="D16" s="139" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="81"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="94" t="s">
+      <c r="E16" s="140"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="146" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="95"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="84" t="s">
+      <c r="H16" s="147"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="85"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="80">
+      <c r="K16" s="119"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="139">
         <v>50</v>
       </c>
-      <c r="N16" s="81"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="80"/>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="81"/>
-      <c r="S16" s="92"/>
+      <c r="N16" s="140"/>
+      <c r="O16" s="141"/>
+      <c r="P16" s="139"/>
+      <c r="Q16" s="140"/>
+      <c r="R16" s="140"/>
+      <c r="S16" s="145"/>
       <c r="U16" s="16"/>
       <c r="V16" s="21" t="s">
         <v>150</v>
@@ -5332,34 +5332,34 @@
       <c r="Z16" s="19"/>
       <c r="AA16" s="19"/>
     </row>
-    <row r="17" spans="3:27" ht="36">
+    <row r="17" spans="3:27" ht="28.5">
       <c r="C17" s="11">
         <v>11</v>
       </c>
-      <c r="D17" s="83" t="s">
+      <c r="D17" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="93" t="s">
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="151" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="87" t="s">
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="83">
+      <c r="K17" s="114"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="113">
         <v>50</v>
       </c>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="83"/>
-      <c r="S17" s="89"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="113"/>
+      <c r="P17" s="113"/>
+      <c r="Q17" s="113"/>
+      <c r="R17" s="113"/>
+      <c r="S17" s="115"/>
       <c r="U17" s="16"/>
       <c r="V17" s="21" t="s">
         <v>151</v>
@@ -5374,36 +5374,36 @@
       <c r="Z17" s="19"/>
       <c r="AA17" s="19"/>
     </row>
-    <row r="18" spans="3:27" ht="36">
+    <row r="18" spans="3:27" ht="28.5">
       <c r="C18" s="11">
         <v>12</v>
       </c>
-      <c r="D18" s="80" t="s">
+      <c r="D18" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="81"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="80" t="s">
+      <c r="E18" s="140"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="81"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="87" t="s">
+      <c r="H18" s="140"/>
+      <c r="I18" s="141"/>
+      <c r="J18" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="80">
+      <c r="K18" s="114"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="139">
         <v>6</v>
       </c>
-      <c r="N18" s="81"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="80" t="s">
+      <c r="N18" s="140"/>
+      <c r="O18" s="141"/>
+      <c r="P18" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="81"/>
-      <c r="S18" s="92"/>
+      <c r="Q18" s="140"/>
+      <c r="R18" s="140"/>
+      <c r="S18" s="145"/>
       <c r="U18" s="16"/>
       <c r="V18" s="21" t="s">
         <v>152</v>
@@ -5418,34 +5418,34 @@
       <c r="Z18" s="19"/>
       <c r="AA18" s="19"/>
     </row>
-    <row r="19" spans="3:27" ht="36">
+    <row r="19" spans="3:27" ht="28.5">
       <c r="C19" s="11">
         <v>13</v>
       </c>
-      <c r="D19" s="80" t="s">
+      <c r="D19" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="81"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="80" t="s">
+      <c r="E19" s="140"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="81"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="84" t="s">
+      <c r="H19" s="140"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="85"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="80">
+      <c r="K19" s="119"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="139">
         <v>50</v>
       </c>
-      <c r="N19" s="81"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="80"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="92"/>
+      <c r="N19" s="140"/>
+      <c r="O19" s="141"/>
+      <c r="P19" s="139"/>
+      <c r="Q19" s="140"/>
+      <c r="R19" s="140"/>
+      <c r="S19" s="145"/>
       <c r="U19" s="16"/>
       <c r="V19" s="21" t="s">
         <v>153</v>
@@ -5460,34 +5460,34 @@
       <c r="Z19" s="19"/>
       <c r="AA19" s="19"/>
     </row>
-    <row r="20" spans="3:27" ht="36">
+    <row r="20" spans="3:27" ht="28.5">
       <c r="C20" s="11">
         <v>14</v>
       </c>
-      <c r="D20" s="80" t="s">
+      <c r="D20" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="81"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="80" t="s">
+      <c r="E20" s="140"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="81"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="84" t="s">
+      <c r="H20" s="140"/>
+      <c r="I20" s="141"/>
+      <c r="J20" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="85"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="80">
+      <c r="K20" s="119"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="139">
         <v>50</v>
       </c>
-      <c r="N20" s="81"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="80"/>
-      <c r="Q20" s="81"/>
-      <c r="R20" s="81"/>
-      <c r="S20" s="92"/>
+      <c r="N20" s="140"/>
+      <c r="O20" s="141"/>
+      <c r="P20" s="139"/>
+      <c r="Q20" s="140"/>
+      <c r="R20" s="140"/>
+      <c r="S20" s="145"/>
       <c r="U20" s="16"/>
       <c r="V20" s="21" t="s">
         <v>154</v>
@@ -5502,34 +5502,34 @@
       <c r="Z20" s="19"/>
       <c r="AA20" s="19"/>
     </row>
-    <row r="21" spans="3:27" ht="36">
+    <row r="21" spans="3:27" ht="28.5">
       <c r="C21" s="11">
         <v>15</v>
       </c>
-      <c r="D21" s="83" t="s">
+      <c r="D21" s="113" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83" t="s">
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="87" t="s">
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="87"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="83">
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="113">
         <v>50</v>
       </c>
-      <c r="N21" s="83"/>
-      <c r="O21" s="83"/>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="83"/>
-      <c r="R21" s="83"/>
-      <c r="S21" s="89"/>
+      <c r="N21" s="113"/>
+      <c r="O21" s="113"/>
+      <c r="P21" s="113"/>
+      <c r="Q21" s="113"/>
+      <c r="R21" s="113"/>
+      <c r="S21" s="115"/>
       <c r="U21" s="16"/>
       <c r="V21" s="21" t="s">
         <v>155</v>
@@ -5544,36 +5544,36 @@
       <c r="Z21" s="19"/>
       <c r="AA21" s="19"/>
     </row>
-    <row r="22" spans="3:27" ht="36">
+    <row r="22" spans="3:27" ht="28.5">
       <c r="C22" s="11">
         <v>16</v>
       </c>
-      <c r="D22" s="83" t="s">
+      <c r="D22" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83" t="s">
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="87" t="s">
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="83">
+      <c r="K22" s="114"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="113">
         <v>8</v>
       </c>
-      <c r="N22" s="83"/>
-      <c r="O22" s="83"/>
-      <c r="P22" s="83" t="s">
+      <c r="N22" s="113"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="83"/>
-      <c r="S22" s="89"/>
+      <c r="Q22" s="113"/>
+      <c r="R22" s="113"/>
+      <c r="S22" s="115"/>
       <c r="U22" s="16"/>
       <c r="V22" s="21" t="s">
         <v>156</v>
@@ -5588,34 +5588,34 @@
       <c r="Z22" s="19"/>
       <c r="AA22" s="19"/>
     </row>
-    <row r="23" spans="3:27" ht="36">
+    <row r="23" spans="3:27" ht="28.5">
       <c r="C23" s="11">
         <v>17</v>
       </c>
-      <c r="D23" s="83" t="s">
+      <c r="D23" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83" t="s">
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="87" t="s">
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="83">
+      <c r="K23" s="114"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="113">
         <v>4</v>
       </c>
-      <c r="N23" s="83"/>
-      <c r="O23" s="83"/>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="83"/>
-      <c r="S23" s="89"/>
+      <c r="N23" s="113"/>
+      <c r="O23" s="113"/>
+      <c r="P23" s="113"/>
+      <c r="Q23" s="113"/>
+      <c r="R23" s="113"/>
+      <c r="S23" s="115"/>
       <c r="U23" s="16"/>
       <c r="V23" s="21" t="s">
         <v>157</v>
@@ -5630,34 +5630,34 @@
       <c r="Z23" s="19"/>
       <c r="AA23" s="19"/>
     </row>
-    <row r="24" spans="3:27" ht="36">
+    <row r="24" spans="3:27" ht="28.5">
       <c r="C24" s="11">
         <v>18</v>
       </c>
-      <c r="D24" s="83" t="s">
+      <c r="D24" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83" t="s">
+      <c r="E24" s="113"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="87" t="s">
+      <c r="H24" s="113"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="83">
+      <c r="K24" s="114"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="113">
         <v>2</v>
       </c>
-      <c r="N24" s="83"/>
-      <c r="O24" s="83"/>
-      <c r="P24" s="83"/>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="89"/>
+      <c r="N24" s="113"/>
+      <c r="O24" s="113"/>
+      <c r="P24" s="113"/>
+      <c r="Q24" s="113"/>
+      <c r="R24" s="113"/>
+      <c r="S24" s="115"/>
       <c r="U24" s="16"/>
       <c r="V24" s="21" t="s">
         <v>158</v>
@@ -5672,34 +5672,34 @@
       <c r="Z24" s="19"/>
       <c r="AA24" s="19"/>
     </row>
-    <row r="25" spans="3:27" ht="36">
+    <row r="25" spans="3:27" ht="28.5">
       <c r="C25" s="11">
         <v>19</v>
       </c>
-      <c r="D25" s="83" t="s">
+      <c r="D25" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83" t="s">
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="87" t="s">
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
-      <c r="M25" s="83">
+      <c r="K25" s="114"/>
+      <c r="L25" s="114"/>
+      <c r="M25" s="113">
         <v>2</v>
       </c>
-      <c r="N25" s="83"/>
-      <c r="O25" s="83"/>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="83"/>
-      <c r="S25" s="89"/>
+      <c r="N25" s="113"/>
+      <c r="O25" s="113"/>
+      <c r="P25" s="113"/>
+      <c r="Q25" s="113"/>
+      <c r="R25" s="113"/>
+      <c r="S25" s="115"/>
       <c r="U25" s="16"/>
       <c r="V25" s="21" t="s">
         <v>159</v>
@@ -5714,34 +5714,34 @@
       <c r="Z25" s="19"/>
       <c r="AA25" s="19"/>
     </row>
-    <row r="26" spans="3:27" ht="36">
+    <row r="26" spans="3:27" ht="28.5">
       <c r="C26" s="11">
         <v>20</v>
       </c>
-      <c r="D26" s="83" t="s">
+      <c r="D26" s="113" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83" t="s">
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="87" t="s">
+      <c r="H26" s="113"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="83">
+      <c r="K26" s="114"/>
+      <c r="L26" s="114"/>
+      <c r="M26" s="113">
         <v>50</v>
       </c>
-      <c r="N26" s="83"/>
-      <c r="O26" s="83"/>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="83"/>
-      <c r="S26" s="89"/>
+      <c r="N26" s="113"/>
+      <c r="O26" s="113"/>
+      <c r="P26" s="113"/>
+      <c r="Q26" s="113"/>
+      <c r="R26" s="113"/>
+      <c r="S26" s="115"/>
       <c r="U26" s="16"/>
       <c r="V26" s="21" t="s">
         <v>160</v>
@@ -5756,36 +5756,36 @@
       <c r="Z26" s="19"/>
       <c r="AA26" s="19"/>
     </row>
-    <row r="27" spans="3:27" ht="36">
+    <row r="27" spans="3:27" ht="28.5">
       <c r="C27" s="11">
         <v>21</v>
       </c>
-      <c r="D27" s="83" t="s">
+      <c r="D27" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83" t="s">
+      <c r="E27" s="113"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="87" t="s">
+      <c r="H27" s="113"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="90">
+      <c r="K27" s="114"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="116">
         <v>10</v>
       </c>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="83" t="s">
+      <c r="N27" s="116"/>
+      <c r="O27" s="116"/>
+      <c r="P27" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="83"/>
-      <c r="S27" s="89"/>
+      <c r="Q27" s="113"/>
+      <c r="R27" s="113"/>
+      <c r="S27" s="115"/>
       <c r="U27" s="16"/>
       <c r="V27" s="21" t="s">
         <v>161</v>
@@ -5800,36 +5800,36 @@
       <c r="Z27" s="19"/>
       <c r="AA27" s="19"/>
     </row>
-    <row r="28" spans="3:27" ht="36">
+    <row r="28" spans="3:27" ht="28.5">
       <c r="C28" s="11">
         <v>22</v>
       </c>
-      <c r="D28" s="83" t="s">
+      <c r="D28" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83" t="s">
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="87" t="s">
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="88">
+      <c r="K28" s="114"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="121">
         <v>4</v>
       </c>
-      <c r="N28" s="88"/>
-      <c r="O28" s="88"/>
-      <c r="P28" s="90" t="s">
+      <c r="N28" s="121"/>
+      <c r="O28" s="121"/>
+      <c r="P28" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="Q28" s="90"/>
-      <c r="R28" s="90"/>
-      <c r="S28" s="91"/>
+      <c r="Q28" s="116"/>
+      <c r="R28" s="116"/>
+      <c r="S28" s="117"/>
       <c r="U28" s="16"/>
       <c r="V28" s="21" t="s">
         <v>162</v>
@@ -5844,34 +5844,34 @@
       <c r="Z28" s="19"/>
       <c r="AA28" s="19"/>
     </row>
-    <row r="29" spans="3:27" ht="36">
+    <row r="29" spans="3:27" ht="28.5">
       <c r="C29" s="11"/>
-      <c r="D29" s="83" t="s">
+      <c r="D29" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83" t="s">
+      <c r="E29" s="113"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="87" t="s">
+      <c r="H29" s="113"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="88" t="s">
+      <c r="K29" s="114"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="N29" s="88"/>
-      <c r="O29" s="88"/>
-      <c r="P29" s="90" t="s">
+      <c r="N29" s="121"/>
+      <c r="O29" s="121"/>
+      <c r="P29" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="Q29" s="90"/>
-      <c r="R29" s="90"/>
-      <c r="S29" s="91"/>
+      <c r="Q29" s="116"/>
+      <c r="R29" s="116"/>
+      <c r="S29" s="117"/>
       <c r="U29" s="16"/>
       <c r="V29" s="21" t="s">
         <v>163</v>
@@ -5886,36 +5886,36 @@
       <c r="Z29" s="19"/>
       <c r="AA29" s="19"/>
     </row>
-    <row r="30" spans="3:27" ht="36">
+    <row r="30" spans="3:27" ht="28.5">
       <c r="C30" s="11">
         <v>23</v>
       </c>
-      <c r="D30" s="83" t="s">
+      <c r="D30" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83" t="s">
+      <c r="E30" s="113"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="87" t="s">
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="88">
+      <c r="K30" s="114"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="121">
         <v>6</v>
       </c>
-      <c r="N30" s="88"/>
-      <c r="O30" s="88"/>
-      <c r="P30" s="90" t="s">
+      <c r="N30" s="121"/>
+      <c r="O30" s="121"/>
+      <c r="P30" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="Q30" s="90"/>
-      <c r="R30" s="90"/>
-      <c r="S30" s="91"/>
+      <c r="Q30" s="116"/>
+      <c r="R30" s="116"/>
+      <c r="S30" s="117"/>
       <c r="U30" s="16"/>
       <c r="V30" s="21" t="s">
         <v>164</v>
@@ -5930,34 +5930,34 @@
       <c r="Z30" s="19"/>
       <c r="AA30" s="19"/>
     </row>
-    <row r="31" spans="3:27" ht="36">
+    <row r="31" spans="3:27" ht="28.5">
       <c r="C31" s="11"/>
-      <c r="D31" s="83" t="s">
+      <c r="D31" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83" t="s">
+      <c r="E31" s="113"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="87" t="s">
+      <c r="H31" s="113"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="K31" s="87"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="88" t="s">
+      <c r="K31" s="114"/>
+      <c r="L31" s="114"/>
+      <c r="M31" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="N31" s="88"/>
-      <c r="O31" s="88"/>
-      <c r="P31" s="90" t="s">
+      <c r="N31" s="121"/>
+      <c r="O31" s="121"/>
+      <c r="P31" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="Q31" s="90"/>
-      <c r="R31" s="90"/>
-      <c r="S31" s="91"/>
+      <c r="Q31" s="116"/>
+      <c r="R31" s="116"/>
+      <c r="S31" s="117"/>
       <c r="U31" s="16"/>
       <c r="V31" s="21" t="s">
         <v>165</v>
@@ -5972,34 +5972,34 @@
       <c r="Z31" s="19"/>
       <c r="AA31" s="19"/>
     </row>
-    <row r="32" spans="3:27" ht="36">
+    <row r="32" spans="3:27" ht="28.5">
       <c r="C32" s="11">
         <v>25</v>
       </c>
-      <c r="D32" s="83" t="s">
+      <c r="D32" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83" t="s">
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="87" t="s">
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="87"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="83">
+      <c r="K32" s="114"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="113">
         <v>50</v>
       </c>
-      <c r="N32" s="83"/>
-      <c r="O32" s="83"/>
-      <c r="P32" s="83"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="83"/>
-      <c r="S32" s="89"/>
+      <c r="N32" s="113"/>
+      <c r="O32" s="113"/>
+      <c r="P32" s="113"/>
+      <c r="Q32" s="113"/>
+      <c r="R32" s="113"/>
+      <c r="S32" s="115"/>
       <c r="U32" s="16"/>
       <c r="V32" s="21" t="s">
         <v>166</v>
@@ -6014,36 +6014,36 @@
       <c r="Z32" s="19"/>
       <c r="AA32" s="19"/>
     </row>
-    <row r="33" spans="3:27" ht="36">
+    <row r="33" spans="3:27" ht="28.5">
       <c r="C33" s="11">
         <v>26</v>
       </c>
-      <c r="D33" s="80" t="s">
+      <c r="D33" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="81"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="80" t="s">
+      <c r="E33" s="140"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="H33" s="81"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="87" t="s">
+      <c r="H33" s="140"/>
+      <c r="I33" s="141"/>
+      <c r="J33" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="87"/>
-      <c r="L33" s="87"/>
-      <c r="M33" s="80">
+      <c r="K33" s="114"/>
+      <c r="L33" s="114"/>
+      <c r="M33" s="139">
         <v>4</v>
       </c>
-      <c r="N33" s="81"/>
-      <c r="O33" s="82"/>
-      <c r="P33" s="90" t="s">
+      <c r="N33" s="140"/>
+      <c r="O33" s="141"/>
+      <c r="P33" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="Q33" s="90"/>
-      <c r="R33" s="90"/>
-      <c r="S33" s="91"/>
+      <c r="Q33" s="116"/>
+      <c r="R33" s="116"/>
+      <c r="S33" s="117"/>
       <c r="U33" s="16"/>
       <c r="V33" s="21" t="s">
         <v>167</v>
@@ -6058,34 +6058,34 @@
       <c r="Z33" s="19"/>
       <c r="AA33" s="19"/>
     </row>
-    <row r="34" spans="3:27" ht="36">
+    <row r="34" spans="3:27" ht="28.5">
       <c r="C34" s="11">
         <v>27</v>
       </c>
-      <c r="D34" s="83" t="s">
+      <c r="D34" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83" t="s">
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="84" t="s">
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="K34" s="85"/>
-      <c r="L34" s="86"/>
-      <c r="M34" s="83">
+      <c r="K34" s="119"/>
+      <c r="L34" s="120"/>
+      <c r="M34" s="113">
         <v>80</v>
       </c>
-      <c r="N34" s="83"/>
-      <c r="O34" s="83"/>
-      <c r="P34" s="90"/>
-      <c r="Q34" s="90"/>
-      <c r="R34" s="90"/>
-      <c r="S34" s="91"/>
+      <c r="N34" s="113"/>
+      <c r="O34" s="113"/>
+      <c r="P34" s="116"/>
+      <c r="Q34" s="116"/>
+      <c r="R34" s="116"/>
+      <c r="S34" s="117"/>
       <c r="U34" s="16"/>
       <c r="V34" s="21" t="s">
         <v>168</v>
@@ -6100,34 +6100,34 @@
       <c r="Z34" s="19"/>
       <c r="AA34" s="19"/>
     </row>
-    <row r="35" spans="3:27" ht="36">
+    <row r="35" spans="3:27" ht="28.5">
       <c r="C35" s="11">
         <v>25</v>
       </c>
-      <c r="D35" s="83" t="s">
+      <c r="D35" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83" t="s">
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="H35" s="83"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="87" t="s">
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="K35" s="87"/>
-      <c r="L35" s="87"/>
-      <c r="M35" s="83">
+      <c r="K35" s="114"/>
+      <c r="L35" s="114"/>
+      <c r="M35" s="113">
         <v>50</v>
       </c>
-      <c r="N35" s="83"/>
-      <c r="O35" s="83"/>
-      <c r="P35" s="83"/>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="83"/>
-      <c r="S35" s="89"/>
+      <c r="N35" s="113"/>
+      <c r="O35" s="113"/>
+      <c r="P35" s="113"/>
+      <c r="Q35" s="113"/>
+      <c r="R35" s="113"/>
+      <c r="S35" s="115"/>
       <c r="U35" s="16"/>
       <c r="V35" s="21" t="s">
         <v>169</v>
@@ -6142,36 +6142,36 @@
       <c r="Z35" s="19"/>
       <c r="AA35" s="19"/>
     </row>
-    <row r="36" spans="3:27" ht="36">
+    <row r="36" spans="3:27" ht="28.5">
       <c r="C36" s="11">
         <v>28</v>
       </c>
-      <c r="D36" s="83" t="s">
+      <c r="D36" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="83" t="s">
+      <c r="E36" s="113"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="87" t="s">
+      <c r="H36" s="113"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="K36" s="87"/>
-      <c r="L36" s="87"/>
-      <c r="M36" s="83">
+      <c r="K36" s="114"/>
+      <c r="L36" s="114"/>
+      <c r="M36" s="113">
         <v>4</v>
       </c>
-      <c r="N36" s="83"/>
-      <c r="O36" s="83"/>
-      <c r="P36" s="90" t="s">
+      <c r="N36" s="113"/>
+      <c r="O36" s="113"/>
+      <c r="P36" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="Q36" s="90"/>
-      <c r="R36" s="90"/>
-      <c r="S36" s="91"/>
+      <c r="Q36" s="116"/>
+      <c r="R36" s="116"/>
+      <c r="S36" s="117"/>
       <c r="U36" s="16"/>
       <c r="V36" s="21" t="s">
         <v>170</v>
@@ -6186,34 +6186,34 @@
       <c r="Z36" s="19"/>
       <c r="AA36" s="19"/>
     </row>
-    <row r="37" spans="3:27" ht="36">
+    <row r="37" spans="3:27" ht="28.5">
       <c r="C37" s="11">
         <v>29</v>
       </c>
-      <c r="D37" s="83" t="s">
+      <c r="D37" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83" t="s">
+      <c r="E37" s="113"/>
+      <c r="F37" s="113"/>
+      <c r="G37" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="H37" s="83"/>
-      <c r="I37" s="83"/>
-      <c r="J37" s="84" t="s">
+      <c r="H37" s="113"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="K37" s="85"/>
-      <c r="L37" s="86"/>
-      <c r="M37" s="83">
+      <c r="K37" s="119"/>
+      <c r="L37" s="120"/>
+      <c r="M37" s="113">
         <v>100</v>
       </c>
-      <c r="N37" s="83"/>
-      <c r="O37" s="83"/>
-      <c r="P37" s="90"/>
-      <c r="Q37" s="90"/>
-      <c r="R37" s="90"/>
-      <c r="S37" s="91"/>
+      <c r="N37" s="113"/>
+      <c r="O37" s="113"/>
+      <c r="P37" s="116"/>
+      <c r="Q37" s="116"/>
+      <c r="R37" s="116"/>
+      <c r="S37" s="117"/>
       <c r="U37" s="16"/>
       <c r="V37" s="21" t="s">
         <v>171</v>
@@ -6228,34 +6228,34 @@
       <c r="Z37" s="19"/>
       <c r="AA37" s="19"/>
     </row>
-    <row r="38" spans="3:27" ht="36">
+    <row r="38" spans="3:27" ht="28.5">
       <c r="C38" s="11">
         <v>25</v>
       </c>
-      <c r="D38" s="83" t="s">
+      <c r="D38" s="113" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83" t="s">
+      <c r="E38" s="113"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="H38" s="83"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="87" t="s">
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="K38" s="87"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="83">
+      <c r="K38" s="114"/>
+      <c r="L38" s="114"/>
+      <c r="M38" s="113">
         <v>50</v>
       </c>
-      <c r="N38" s="83"/>
-      <c r="O38" s="83"/>
-      <c r="P38" s="83"/>
-      <c r="Q38" s="83"/>
-      <c r="R38" s="83"/>
-      <c r="S38" s="89"/>
+      <c r="N38" s="113"/>
+      <c r="O38" s="113"/>
+      <c r="P38" s="113"/>
+      <c r="Q38" s="113"/>
+      <c r="R38" s="113"/>
+      <c r="S38" s="115"/>
       <c r="U38" s="16"/>
       <c r="V38" s="21" t="s">
         <v>172</v>
@@ -6270,36 +6270,36 @@
       <c r="Z38" s="19"/>
       <c r="AA38" s="19"/>
     </row>
-    <row r="39" spans="3:27" ht="36">
+    <row r="39" spans="3:27" ht="28.5">
       <c r="C39" s="11">
         <v>30</v>
       </c>
-      <c r="D39" s="80" t="s">
+      <c r="D39" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="81"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="80" t="s">
+      <c r="E39" s="140"/>
+      <c r="F39" s="141"/>
+      <c r="G39" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="H39" s="81"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="84" t="s">
+      <c r="H39" s="140"/>
+      <c r="I39" s="141"/>
+      <c r="J39" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="K39" s="85"/>
-      <c r="L39" s="86"/>
-      <c r="M39" s="80" t="s">
+      <c r="K39" s="119"/>
+      <c r="L39" s="120"/>
+      <c r="M39" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="81"/>
-      <c r="O39" s="82"/>
-      <c r="P39" s="80" t="s">
+      <c r="N39" s="140"/>
+      <c r="O39" s="141"/>
+      <c r="P39" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="Q39" s="81"/>
-      <c r="R39" s="81"/>
-      <c r="S39" s="92"/>
+      <c r="Q39" s="140"/>
+      <c r="R39" s="140"/>
+      <c r="S39" s="145"/>
       <c r="U39" s="16"/>
       <c r="V39" s="21" t="s">
         <v>173</v>
@@ -6314,36 +6314,36 @@
       <c r="Z39" s="19"/>
       <c r="AA39" s="19"/>
     </row>
-    <row r="40" spans="3:27" ht="36">
+    <row r="40" spans="3:27" ht="28.5">
       <c r="C40" s="11">
         <v>31</v>
       </c>
-      <c r="D40" s="80" t="s">
+      <c r="D40" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="81"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="80" t="s">
+      <c r="E40" s="140"/>
+      <c r="F40" s="141"/>
+      <c r="G40" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="H40" s="81"/>
-      <c r="I40" s="82"/>
-      <c r="J40" s="84" t="s">
+      <c r="H40" s="140"/>
+      <c r="I40" s="141"/>
+      <c r="J40" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="K40" s="85"/>
-      <c r="L40" s="86"/>
-      <c r="M40" s="80" t="s">
+      <c r="K40" s="119"/>
+      <c r="L40" s="120"/>
+      <c r="M40" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="81"/>
-      <c r="O40" s="82"/>
-      <c r="P40" s="80" t="s">
+      <c r="N40" s="140"/>
+      <c r="O40" s="141"/>
+      <c r="P40" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="Q40" s="81"/>
-      <c r="R40" s="81"/>
-      <c r="S40" s="92"/>
+      <c r="Q40" s="140"/>
+      <c r="R40" s="140"/>
+      <c r="S40" s="145"/>
       <c r="U40" s="16"/>
       <c r="V40" s="21" t="s">
         <v>174</v>
@@ -6360,22 +6360,22 @@
     </row>
     <row r="41" spans="3:27">
       <c r="C41" s="11"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="82"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="82"/>
-      <c r="J41" s="80"/>
-      <c r="K41" s="81"/>
-      <c r="L41" s="82"/>
-      <c r="M41" s="80"/>
-      <c r="N41" s="81"/>
-      <c r="O41" s="82"/>
-      <c r="P41" s="80"/>
-      <c r="Q41" s="81"/>
-      <c r="R41" s="81"/>
-      <c r="S41" s="92"/>
+      <c r="D41" s="139"/>
+      <c r="E41" s="140"/>
+      <c r="F41" s="141"/>
+      <c r="G41" s="139"/>
+      <c r="H41" s="140"/>
+      <c r="I41" s="141"/>
+      <c r="J41" s="139"/>
+      <c r="K41" s="140"/>
+      <c r="L41" s="141"/>
+      <c r="M41" s="139"/>
+      <c r="N41" s="140"/>
+      <c r="O41" s="141"/>
+      <c r="P41" s="139"/>
+      <c r="Q41" s="140"/>
+      <c r="R41" s="140"/>
+      <c r="S41" s="145"/>
       <c r="U41" s="16"/>
       <c r="V41" s="19"/>
       <c r="W41" s="19"/>
@@ -6386,22 +6386,22 @@
     </row>
     <row r="42" spans="3:27">
       <c r="C42" s="4"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="80"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="82"/>
-      <c r="J42" s="80"/>
-      <c r="K42" s="81"/>
-      <c r="L42" s="82"/>
-      <c r="M42" s="80"/>
-      <c r="N42" s="81"/>
-      <c r="O42" s="82"/>
-      <c r="P42" s="80"/>
-      <c r="Q42" s="81"/>
-      <c r="R42" s="81"/>
-      <c r="S42" s="92"/>
+      <c r="D42" s="139"/>
+      <c r="E42" s="140"/>
+      <c r="F42" s="141"/>
+      <c r="G42" s="139"/>
+      <c r="H42" s="140"/>
+      <c r="I42" s="141"/>
+      <c r="J42" s="139"/>
+      <c r="K42" s="140"/>
+      <c r="L42" s="141"/>
+      <c r="M42" s="139"/>
+      <c r="N42" s="140"/>
+      <c r="O42" s="141"/>
+      <c r="P42" s="139"/>
+      <c r="Q42" s="140"/>
+      <c r="R42" s="140"/>
+      <c r="S42" s="145"/>
       <c r="U42" s="16"/>
       <c r="V42" s="19"/>
       <c r="W42" s="19"/>
@@ -6412,22 +6412,22 @@
     </row>
     <row r="43" spans="3:27">
       <c r="C43" s="4"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="80"/>
-      <c r="K43" s="81"/>
-      <c r="L43" s="82"/>
-      <c r="M43" s="80"/>
-      <c r="N43" s="81"/>
-      <c r="O43" s="82"/>
-      <c r="P43" s="80"/>
-      <c r="Q43" s="81"/>
-      <c r="R43" s="81"/>
-      <c r="S43" s="92"/>
+      <c r="D43" s="139"/>
+      <c r="E43" s="140"/>
+      <c r="F43" s="141"/>
+      <c r="G43" s="139"/>
+      <c r="H43" s="140"/>
+      <c r="I43" s="141"/>
+      <c r="J43" s="139"/>
+      <c r="K43" s="140"/>
+      <c r="L43" s="141"/>
+      <c r="M43" s="139"/>
+      <c r="N43" s="140"/>
+      <c r="O43" s="141"/>
+      <c r="P43" s="139"/>
+      <c r="Q43" s="140"/>
+      <c r="R43" s="140"/>
+      <c r="S43" s="145"/>
       <c r="U43" s="16"/>
       <c r="V43" s="19"/>
       <c r="W43" s="19"/>
@@ -6438,22 +6438,22 @@
     </row>
     <row r="44" spans="3:27">
       <c r="C44" s="4"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="82"/>
-      <c r="J44" s="80"/>
-      <c r="K44" s="81"/>
-      <c r="L44" s="82"/>
-      <c r="M44" s="80"/>
-      <c r="N44" s="81"/>
-      <c r="O44" s="82"/>
-      <c r="P44" s="80"/>
-      <c r="Q44" s="81"/>
-      <c r="R44" s="81"/>
-      <c r="S44" s="92"/>
+      <c r="D44" s="139"/>
+      <c r="E44" s="140"/>
+      <c r="F44" s="141"/>
+      <c r="G44" s="139"/>
+      <c r="H44" s="140"/>
+      <c r="I44" s="141"/>
+      <c r="J44" s="139"/>
+      <c r="K44" s="140"/>
+      <c r="L44" s="141"/>
+      <c r="M44" s="139"/>
+      <c r="N44" s="140"/>
+      <c r="O44" s="141"/>
+      <c r="P44" s="139"/>
+      <c r="Q44" s="140"/>
+      <c r="R44" s="140"/>
+      <c r="S44" s="145"/>
       <c r="U44" s="16"/>
       <c r="V44" s="19"/>
       <c r="W44" s="19"/>
@@ -6464,22 +6464,22 @@
     </row>
     <row r="45" spans="3:27">
       <c r="C45" s="4"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="80"/>
-      <c r="H45" s="81"/>
-      <c r="I45" s="82"/>
-      <c r="J45" s="80"/>
-      <c r="K45" s="81"/>
-      <c r="L45" s="82"/>
-      <c r="M45" s="80"/>
-      <c r="N45" s="81"/>
-      <c r="O45" s="82"/>
-      <c r="P45" s="80"/>
-      <c r="Q45" s="81"/>
-      <c r="R45" s="81"/>
-      <c r="S45" s="92"/>
+      <c r="D45" s="139"/>
+      <c r="E45" s="140"/>
+      <c r="F45" s="141"/>
+      <c r="G45" s="139"/>
+      <c r="H45" s="140"/>
+      <c r="I45" s="141"/>
+      <c r="J45" s="139"/>
+      <c r="K45" s="140"/>
+      <c r="L45" s="141"/>
+      <c r="M45" s="139"/>
+      <c r="N45" s="140"/>
+      <c r="O45" s="141"/>
+      <c r="P45" s="139"/>
+      <c r="Q45" s="140"/>
+      <c r="R45" s="140"/>
+      <c r="S45" s="145"/>
       <c r="U45" s="16"/>
       <c r="V45" s="19"/>
       <c r="W45" s="19"/>
@@ -6490,22 +6490,22 @@
     </row>
     <row r="46" spans="3:27">
       <c r="C46" s="4"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="80"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="82"/>
-      <c r="J46" s="80"/>
-      <c r="K46" s="81"/>
-      <c r="L46" s="82"/>
-      <c r="M46" s="80"/>
-      <c r="N46" s="81"/>
-      <c r="O46" s="82"/>
-      <c r="P46" s="80"/>
-      <c r="Q46" s="81"/>
-      <c r="R46" s="81"/>
-      <c r="S46" s="92"/>
+      <c r="D46" s="139"/>
+      <c r="E46" s="140"/>
+      <c r="F46" s="141"/>
+      <c r="G46" s="139"/>
+      <c r="H46" s="140"/>
+      <c r="I46" s="141"/>
+      <c r="J46" s="139"/>
+      <c r="K46" s="140"/>
+      <c r="L46" s="141"/>
+      <c r="M46" s="139"/>
+      <c r="N46" s="140"/>
+      <c r="O46" s="141"/>
+      <c r="P46" s="139"/>
+      <c r="Q46" s="140"/>
+      <c r="R46" s="140"/>
+      <c r="S46" s="145"/>
       <c r="U46" s="16"/>
       <c r="V46" s="19"/>
       <c r="W46" s="19"/>
@@ -6516,22 +6516,22 @@
     </row>
     <row r="47" spans="3:27">
       <c r="C47" s="4"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="81"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="81"/>
-      <c r="I47" s="82"/>
-      <c r="J47" s="80"/>
-      <c r="K47" s="81"/>
-      <c r="L47" s="82"/>
-      <c r="M47" s="80"/>
-      <c r="N47" s="81"/>
-      <c r="O47" s="82"/>
-      <c r="P47" s="80"/>
-      <c r="Q47" s="81"/>
-      <c r="R47" s="81"/>
-      <c r="S47" s="92"/>
+      <c r="D47" s="139"/>
+      <c r="E47" s="140"/>
+      <c r="F47" s="141"/>
+      <c r="G47" s="139"/>
+      <c r="H47" s="140"/>
+      <c r="I47" s="141"/>
+      <c r="J47" s="139"/>
+      <c r="K47" s="140"/>
+      <c r="L47" s="141"/>
+      <c r="M47" s="139"/>
+      <c r="N47" s="140"/>
+      <c r="O47" s="141"/>
+      <c r="P47" s="139"/>
+      <c r="Q47" s="140"/>
+      <c r="R47" s="140"/>
+      <c r="S47" s="145"/>
       <c r="U47" s="16"/>
       <c r="V47" s="19"/>
       <c r="W47" s="19"/>
@@ -6542,22 +6542,22 @@
     </row>
     <row r="48" spans="3:27">
       <c r="C48" s="4"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="81"/>
-      <c r="F48" s="82"/>
-      <c r="G48" s="80"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="82"/>
-      <c r="J48" s="80"/>
-      <c r="K48" s="81"/>
-      <c r="L48" s="82"/>
-      <c r="M48" s="80"/>
-      <c r="N48" s="81"/>
-      <c r="O48" s="82"/>
-      <c r="P48" s="80"/>
-      <c r="Q48" s="81"/>
-      <c r="R48" s="81"/>
-      <c r="S48" s="92"/>
+      <c r="D48" s="139"/>
+      <c r="E48" s="140"/>
+      <c r="F48" s="141"/>
+      <c r="G48" s="139"/>
+      <c r="H48" s="140"/>
+      <c r="I48" s="141"/>
+      <c r="J48" s="139"/>
+      <c r="K48" s="140"/>
+      <c r="L48" s="141"/>
+      <c r="M48" s="139"/>
+      <c r="N48" s="140"/>
+      <c r="O48" s="141"/>
+      <c r="P48" s="139"/>
+      <c r="Q48" s="140"/>
+      <c r="R48" s="140"/>
+      <c r="S48" s="145"/>
       <c r="U48" s="16"/>
       <c r="V48" s="19"/>
       <c r="W48" s="19"/>
@@ -6568,22 +6568,22 @@
     </row>
     <row r="49" spans="3:27">
       <c r="C49" s="4"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="81"/>
-      <c r="F49" s="82"/>
-      <c r="G49" s="80"/>
-      <c r="H49" s="81"/>
-      <c r="I49" s="82"/>
-      <c r="J49" s="80"/>
-      <c r="K49" s="81"/>
-      <c r="L49" s="82"/>
-      <c r="M49" s="80"/>
-      <c r="N49" s="81"/>
-      <c r="O49" s="82"/>
-      <c r="P49" s="80"/>
-      <c r="Q49" s="81"/>
-      <c r="R49" s="81"/>
-      <c r="S49" s="92"/>
+      <c r="D49" s="139"/>
+      <c r="E49" s="140"/>
+      <c r="F49" s="141"/>
+      <c r="G49" s="139"/>
+      <c r="H49" s="140"/>
+      <c r="I49" s="141"/>
+      <c r="J49" s="139"/>
+      <c r="K49" s="140"/>
+      <c r="L49" s="141"/>
+      <c r="M49" s="139"/>
+      <c r="N49" s="140"/>
+      <c r="O49" s="141"/>
+      <c r="P49" s="139"/>
+      <c r="Q49" s="140"/>
+      <c r="R49" s="140"/>
+      <c r="S49" s="145"/>
       <c r="U49" s="16"/>
       <c r="V49" s="19"/>
       <c r="W49" s="19"/>
@@ -6594,22 +6594,22 @@
     </row>
     <row r="50" spans="3:27">
       <c r="C50" s="4"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="81"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="80"/>
-      <c r="H50" s="81"/>
-      <c r="I50" s="82"/>
-      <c r="J50" s="80"/>
-      <c r="K50" s="81"/>
-      <c r="L50" s="82"/>
-      <c r="M50" s="80"/>
-      <c r="N50" s="81"/>
-      <c r="O50" s="82"/>
-      <c r="P50" s="80"/>
-      <c r="Q50" s="81"/>
-      <c r="R50" s="81"/>
-      <c r="S50" s="92"/>
+      <c r="D50" s="139"/>
+      <c r="E50" s="140"/>
+      <c r="F50" s="141"/>
+      <c r="G50" s="139"/>
+      <c r="H50" s="140"/>
+      <c r="I50" s="141"/>
+      <c r="J50" s="139"/>
+      <c r="K50" s="140"/>
+      <c r="L50" s="141"/>
+      <c r="M50" s="139"/>
+      <c r="N50" s="140"/>
+      <c r="O50" s="141"/>
+      <c r="P50" s="139"/>
+      <c r="Q50" s="140"/>
+      <c r="R50" s="140"/>
+      <c r="S50" s="145"/>
       <c r="U50" s="16"/>
       <c r="V50" s="19"/>
       <c r="W50" s="19"/>
@@ -6620,22 +6620,22 @@
     </row>
     <row r="51" spans="3:27">
       <c r="C51" s="4"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="90"/>
-      <c r="J51" s="90"/>
-      <c r="K51" s="90"/>
-      <c r="L51" s="90"/>
-      <c r="M51" s="90"/>
-      <c r="N51" s="90"/>
-      <c r="O51" s="90"/>
-      <c r="P51" s="90"/>
-      <c r="Q51" s="90"/>
-      <c r="R51" s="90"/>
-      <c r="S51" s="91"/>
+      <c r="D51" s="116"/>
+      <c r="E51" s="116"/>
+      <c r="F51" s="116"/>
+      <c r="G51" s="116"/>
+      <c r="H51" s="116"/>
+      <c r="I51" s="116"/>
+      <c r="J51" s="116"/>
+      <c r="K51" s="116"/>
+      <c r="L51" s="116"/>
+      <c r="M51" s="116"/>
+      <c r="N51" s="116"/>
+      <c r="O51" s="116"/>
+      <c r="P51" s="116"/>
+      <c r="Q51" s="116"/>
+      <c r="R51" s="116"/>
+      <c r="S51" s="117"/>
       <c r="U51" s="16"/>
       <c r="V51" s="19"/>
       <c r="W51" s="19"/>
@@ -6646,22 +6646,22 @@
     </row>
     <row r="52" spans="3:27">
       <c r="C52" s="4"/>
-      <c r="D52" s="90"/>
-      <c r="E52" s="90"/>
-      <c r="F52" s="90"/>
-      <c r="G52" s="90"/>
-      <c r="H52" s="90"/>
-      <c r="I52" s="90"/>
-      <c r="J52" s="90"/>
-      <c r="K52" s="90"/>
-      <c r="L52" s="90"/>
-      <c r="M52" s="90"/>
-      <c r="N52" s="90"/>
-      <c r="O52" s="90"/>
-      <c r="P52" s="90"/>
-      <c r="Q52" s="90"/>
-      <c r="R52" s="90"/>
-      <c r="S52" s="91"/>
+      <c r="D52" s="116"/>
+      <c r="E52" s="116"/>
+      <c r="F52" s="116"/>
+      <c r="G52" s="116"/>
+      <c r="H52" s="116"/>
+      <c r="I52" s="116"/>
+      <c r="J52" s="116"/>
+      <c r="K52" s="116"/>
+      <c r="L52" s="116"/>
+      <c r="M52" s="116"/>
+      <c r="N52" s="116"/>
+      <c r="O52" s="116"/>
+      <c r="P52" s="116"/>
+      <c r="Q52" s="116"/>
+      <c r="R52" s="116"/>
+      <c r="S52" s="117"/>
       <c r="U52" s="16"/>
       <c r="V52" s="19"/>
       <c r="W52" s="19"/>
@@ -6672,22 +6672,22 @@
     </row>
     <row r="53" spans="3:27">
       <c r="C53" s="4"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="90"/>
-      <c r="F53" s="90"/>
-      <c r="G53" s="90"/>
-      <c r="H53" s="90"/>
-      <c r="I53" s="90"/>
-      <c r="J53" s="90"/>
-      <c r="K53" s="90"/>
-      <c r="L53" s="90"/>
-      <c r="M53" s="90"/>
-      <c r="N53" s="90"/>
-      <c r="O53" s="90"/>
-      <c r="P53" s="90"/>
-      <c r="Q53" s="90"/>
-      <c r="R53" s="90"/>
-      <c r="S53" s="91"/>
+      <c r="D53" s="116"/>
+      <c r="E53" s="116"/>
+      <c r="F53" s="116"/>
+      <c r="G53" s="116"/>
+      <c r="H53" s="116"/>
+      <c r="I53" s="116"/>
+      <c r="J53" s="116"/>
+      <c r="K53" s="116"/>
+      <c r="L53" s="116"/>
+      <c r="M53" s="116"/>
+      <c r="N53" s="116"/>
+      <c r="O53" s="116"/>
+      <c r="P53" s="116"/>
+      <c r="Q53" s="116"/>
+      <c r="R53" s="116"/>
+      <c r="S53" s="117"/>
       <c r="V53" s="19"/>
       <c r="W53" s="19"/>
       <c r="X53" s="19"/>
@@ -6697,22 +6697,22 @@
     </row>
     <row r="54" spans="3:27">
       <c r="C54" s="4"/>
-      <c r="D54" s="90"/>
-      <c r="E54" s="90"/>
-      <c r="F54" s="90"/>
-      <c r="G54" s="90"/>
-      <c r="H54" s="90"/>
-      <c r="I54" s="90"/>
-      <c r="J54" s="90"/>
-      <c r="K54" s="90"/>
-      <c r="L54" s="90"/>
-      <c r="M54" s="90"/>
-      <c r="N54" s="90"/>
-      <c r="O54" s="90"/>
-      <c r="P54" s="90"/>
-      <c r="Q54" s="90"/>
-      <c r="R54" s="90"/>
-      <c r="S54" s="91"/>
+      <c r="D54" s="116"/>
+      <c r="E54" s="116"/>
+      <c r="F54" s="116"/>
+      <c r="G54" s="116"/>
+      <c r="H54" s="116"/>
+      <c r="I54" s="116"/>
+      <c r="J54" s="116"/>
+      <c r="K54" s="116"/>
+      <c r="L54" s="116"/>
+      <c r="M54" s="116"/>
+      <c r="N54" s="116"/>
+      <c r="O54" s="116"/>
+      <c r="P54" s="116"/>
+      <c r="Q54" s="116"/>
+      <c r="R54" s="116"/>
+      <c r="S54" s="117"/>
       <c r="V54" s="19"/>
       <c r="W54" s="19"/>
       <c r="X54" s="19"/>
@@ -6722,155 +6722,155 @@
     </row>
     <row r="55" spans="3:27">
       <c r="C55" s="4"/>
-      <c r="D55" s="90"/>
-      <c r="E55" s="90"/>
-      <c r="F55" s="90"/>
-      <c r="G55" s="90"/>
-      <c r="H55" s="90"/>
-      <c r="I55" s="90"/>
-      <c r="J55" s="90"/>
-      <c r="K55" s="90"/>
-      <c r="L55" s="90"/>
-      <c r="M55" s="90"/>
-      <c r="N55" s="90"/>
-      <c r="O55" s="90"/>
-      <c r="P55" s="90"/>
-      <c r="Q55" s="90"/>
-      <c r="R55" s="90"/>
-      <c r="S55" s="91"/>
+      <c r="D55" s="116"/>
+      <c r="E55" s="116"/>
+      <c r="F55" s="116"/>
+      <c r="G55" s="116"/>
+      <c r="H55" s="116"/>
+      <c r="I55" s="116"/>
+      <c r="J55" s="116"/>
+      <c r="K55" s="116"/>
+      <c r="L55" s="116"/>
+      <c r="M55" s="116"/>
+      <c r="N55" s="116"/>
+      <c r="O55" s="116"/>
+      <c r="P55" s="116"/>
+      <c r="Q55" s="116"/>
+      <c r="R55" s="116"/>
+      <c r="S55" s="117"/>
     </row>
     <row r="56" spans="3:27">
       <c r="C56" s="4"/>
-      <c r="D56" s="90"/>
-      <c r="E56" s="90"/>
-      <c r="F56" s="90"/>
-      <c r="G56" s="90"/>
-      <c r="H56" s="90"/>
-      <c r="I56" s="90"/>
-      <c r="J56" s="90"/>
-      <c r="K56" s="90"/>
-      <c r="L56" s="90"/>
-      <c r="M56" s="90"/>
-      <c r="N56" s="90"/>
-      <c r="O56" s="90"/>
-      <c r="P56" s="90"/>
-      <c r="Q56" s="90"/>
-      <c r="R56" s="90"/>
-      <c r="S56" s="91"/>
+      <c r="D56" s="116"/>
+      <c r="E56" s="116"/>
+      <c r="F56" s="116"/>
+      <c r="G56" s="116"/>
+      <c r="H56" s="116"/>
+      <c r="I56" s="116"/>
+      <c r="J56" s="116"/>
+      <c r="K56" s="116"/>
+      <c r="L56" s="116"/>
+      <c r="M56" s="116"/>
+      <c r="N56" s="116"/>
+      <c r="O56" s="116"/>
+      <c r="P56" s="116"/>
+      <c r="Q56" s="116"/>
+      <c r="R56" s="116"/>
+      <c r="S56" s="117"/>
     </row>
     <row r="57" spans="3:27">
       <c r="C57" s="4"/>
-      <c r="D57" s="90"/>
-      <c r="E57" s="90"/>
-      <c r="F57" s="90"/>
-      <c r="G57" s="90"/>
-      <c r="H57" s="90"/>
-      <c r="I57" s="90"/>
-      <c r="J57" s="90"/>
-      <c r="K57" s="90"/>
-      <c r="L57" s="90"/>
-      <c r="M57" s="90"/>
-      <c r="N57" s="90"/>
-      <c r="O57" s="90"/>
-      <c r="P57" s="90"/>
-      <c r="Q57" s="90"/>
-      <c r="R57" s="90"/>
-      <c r="S57" s="91"/>
+      <c r="D57" s="116"/>
+      <c r="E57" s="116"/>
+      <c r="F57" s="116"/>
+      <c r="G57" s="116"/>
+      <c r="H57" s="116"/>
+      <c r="I57" s="116"/>
+      <c r="J57" s="116"/>
+      <c r="K57" s="116"/>
+      <c r="L57" s="116"/>
+      <c r="M57" s="116"/>
+      <c r="N57" s="116"/>
+      <c r="O57" s="116"/>
+      <c r="P57" s="116"/>
+      <c r="Q57" s="116"/>
+      <c r="R57" s="116"/>
+      <c r="S57" s="117"/>
     </row>
     <row r="58" spans="3:27">
       <c r="C58" s="4"/>
-      <c r="D58" s="90"/>
-      <c r="E58" s="90"/>
-      <c r="F58" s="90"/>
-      <c r="G58" s="90"/>
-      <c r="H58" s="90"/>
-      <c r="I58" s="90"/>
-      <c r="J58" s="90"/>
-      <c r="K58" s="90"/>
-      <c r="L58" s="90"/>
-      <c r="M58" s="90"/>
-      <c r="N58" s="90"/>
-      <c r="O58" s="90"/>
-      <c r="P58" s="90"/>
-      <c r="Q58" s="90"/>
-      <c r="R58" s="90"/>
-      <c r="S58" s="91"/>
+      <c r="D58" s="116"/>
+      <c r="E58" s="116"/>
+      <c r="F58" s="116"/>
+      <c r="G58" s="116"/>
+      <c r="H58" s="116"/>
+      <c r="I58" s="116"/>
+      <c r="J58" s="116"/>
+      <c r="K58" s="116"/>
+      <c r="L58" s="116"/>
+      <c r="M58" s="116"/>
+      <c r="N58" s="116"/>
+      <c r="O58" s="116"/>
+      <c r="P58" s="116"/>
+      <c r="Q58" s="116"/>
+      <c r="R58" s="116"/>
+      <c r="S58" s="117"/>
     </row>
     <row r="59" spans="3:27">
       <c r="C59" s="4"/>
-      <c r="D59" s="90"/>
-      <c r="E59" s="90"/>
-      <c r="F59" s="90"/>
-      <c r="G59" s="90"/>
-      <c r="H59" s="90"/>
-      <c r="I59" s="90"/>
-      <c r="J59" s="90"/>
-      <c r="K59" s="90"/>
-      <c r="L59" s="90"/>
-      <c r="M59" s="90"/>
-      <c r="N59" s="90"/>
-      <c r="O59" s="90"/>
-      <c r="P59" s="90"/>
-      <c r="Q59" s="90"/>
-      <c r="R59" s="90"/>
-      <c r="S59" s="91"/>
+      <c r="D59" s="116"/>
+      <c r="E59" s="116"/>
+      <c r="F59" s="116"/>
+      <c r="G59" s="116"/>
+      <c r="H59" s="116"/>
+      <c r="I59" s="116"/>
+      <c r="J59" s="116"/>
+      <c r="K59" s="116"/>
+      <c r="L59" s="116"/>
+      <c r="M59" s="116"/>
+      <c r="N59" s="116"/>
+      <c r="O59" s="116"/>
+      <c r="P59" s="116"/>
+      <c r="Q59" s="116"/>
+      <c r="R59" s="116"/>
+      <c r="S59" s="117"/>
     </row>
     <row r="60" spans="3:27">
       <c r="C60" s="4"/>
-      <c r="D60" s="90"/>
-      <c r="E60" s="90"/>
-      <c r="F60" s="90"/>
-      <c r="G60" s="90"/>
-      <c r="H60" s="90"/>
-      <c r="I60" s="90"/>
-      <c r="J60" s="90"/>
-      <c r="K60" s="90"/>
-      <c r="L60" s="90"/>
-      <c r="M60" s="90"/>
-      <c r="N60" s="90"/>
-      <c r="O60" s="90"/>
-      <c r="P60" s="90"/>
-      <c r="Q60" s="90"/>
-      <c r="R60" s="90"/>
-      <c r="S60" s="91"/>
+      <c r="D60" s="116"/>
+      <c r="E60" s="116"/>
+      <c r="F60" s="116"/>
+      <c r="G60" s="116"/>
+      <c r="H60" s="116"/>
+      <c r="I60" s="116"/>
+      <c r="J60" s="116"/>
+      <c r="K60" s="116"/>
+      <c r="L60" s="116"/>
+      <c r="M60" s="116"/>
+      <c r="N60" s="116"/>
+      <c r="O60" s="116"/>
+      <c r="P60" s="116"/>
+      <c r="Q60" s="116"/>
+      <c r="R60" s="116"/>
+      <c r="S60" s="117"/>
     </row>
     <row r="61" spans="3:27">
       <c r="C61" s="4"/>
-      <c r="D61" s="90"/>
-      <c r="E61" s="90"/>
-      <c r="F61" s="90"/>
-      <c r="G61" s="90"/>
-      <c r="H61" s="90"/>
-      <c r="I61" s="90"/>
-      <c r="J61" s="90"/>
-      <c r="K61" s="90"/>
-      <c r="L61" s="90"/>
-      <c r="M61" s="90"/>
-      <c r="N61" s="90"/>
-      <c r="O61" s="90"/>
-      <c r="P61" s="90"/>
-      <c r="Q61" s="90"/>
-      <c r="R61" s="90"/>
-      <c r="S61" s="91"/>
-    </row>
-    <row r="62" spans="3:27" ht="18.600000000000001" thickBot="1">
+      <c r="D61" s="116"/>
+      <c r="E61" s="116"/>
+      <c r="F61" s="116"/>
+      <c r="G61" s="116"/>
+      <c r="H61" s="116"/>
+      <c r="I61" s="116"/>
+      <c r="J61" s="116"/>
+      <c r="K61" s="116"/>
+      <c r="L61" s="116"/>
+      <c r="M61" s="116"/>
+      <c r="N61" s="116"/>
+      <c r="O61" s="116"/>
+      <c r="P61" s="116"/>
+      <c r="Q61" s="116"/>
+      <c r="R61" s="116"/>
+      <c r="S61" s="117"/>
+    </row>
+    <row r="62" spans="3:27" ht="15" thickBot="1">
       <c r="C62" s="5"/>
-      <c r="D62" s="97"/>
-      <c r="E62" s="97"/>
-      <c r="F62" s="97"/>
-      <c r="G62" s="97"/>
-      <c r="H62" s="97"/>
-      <c r="I62" s="97"/>
-      <c r="J62" s="97"/>
-      <c r="K62" s="97"/>
-      <c r="L62" s="97"/>
-      <c r="M62" s="97"/>
-      <c r="N62" s="97"/>
-      <c r="O62" s="97"/>
-      <c r="P62" s="97"/>
-      <c r="Q62" s="97"/>
-      <c r="R62" s="97"/>
-      <c r="S62" s="98"/>
+      <c r="D62" s="149"/>
+      <c r="E62" s="149"/>
+      <c r="F62" s="149"/>
+      <c r="G62" s="149"/>
+      <c r="H62" s="149"/>
+      <c r="I62" s="149"/>
+      <c r="J62" s="149"/>
+      <c r="K62" s="149"/>
+      <c r="L62" s="149"/>
+      <c r="M62" s="149"/>
+      <c r="N62" s="149"/>
+      <c r="O62" s="149"/>
+      <c r="P62" s="149"/>
+      <c r="Q62" s="149"/>
+      <c r="R62" s="149"/>
+      <c r="S62" s="150"/>
     </row>
   </sheetData>
   <autoFilter ref="C6:S40" xr:uid="{E5ABB0B6-41E7-4951-98AC-3F8C79ECD689}">
@@ -6887,35 +6887,243 @@
     <filterColumn colId="15" showButton="0"/>
   </autoFilter>
   <mergeCells count="292">
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="P38:S38"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="P33:S33"/>
-    <mergeCell ref="P34:S34"/>
-    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="V2:Y3"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:S29"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="P60:S60"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="P59:S59"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="P62:S62"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="P61:S61"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="P58:S58"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:S57"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="P54:S54"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="P51:S51"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="P50:S50"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:S49"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="P48:S48"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="P47:S47"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="P46:S46"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="P45:S45"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:S9"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="J11:L11"/>
@@ -6940,249 +7148,41 @@
     <mergeCell ref="P7:S7"/>
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="P41:S41"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="P43:S43"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="P42:S42"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="P45:S45"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="P47:S47"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="P46:S46"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:S49"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="P48:S48"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="P51:S51"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="P50:S50"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="P53:S53"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="M54:O54"/>
-    <mergeCell ref="P54:S54"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="P58:S58"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="P57:S57"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="P62:S62"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="P61:S61"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="P60:S60"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="P59:S59"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="P33:S33"/>
+    <mergeCell ref="P34:S34"/>
+    <mergeCell ref="P30:S30"/>
     <mergeCell ref="G33:I33"/>
     <mergeCell ref="J33:L33"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:S28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="V2:Y3"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:S27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="P38:S38"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:O37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="18" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="19" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7194,90 +7194,90 @@
       <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="2.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.09765625" style="1" customWidth="1"/>
-    <col min="5" max="19" width="12.09765625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="16.8984375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="2.19921875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="30.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="1" customWidth="1"/>
+    <col min="5" max="19" width="12.125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16.875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="2.25" style="1" customWidth="1"/>
+    <col min="22" max="22" width="30.75" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="44.5" style="1" customWidth="1"/>
-    <col min="24" max="24" width="34.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.09765625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="34.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.125" style="1" customWidth="1"/>
     <col min="26" max="26" width="18" style="1" customWidth="1"/>
-    <col min="27" max="27" width="32.296875" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.59765625" style="1"/>
+    <col min="27" max="27" width="32.25" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:27" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="3:27" ht="36.9" customHeight="1">
-      <c r="C2" s="102" t="s">
+    <row r="1" spans="3:27" ht="15" thickBot="1"/>
+    <row r="2" spans="3:27" ht="36.950000000000003" customHeight="1">
+      <c r="C2" s="122" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="105"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="125"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-    </row>
-    <row r="3" spans="3:27" s="23" customFormat="1" ht="38.4" customHeight="1" thickBot="1">
+      <c r="V2" s="98"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+    </row>
+    <row r="3" spans="3:27" s="23" customFormat="1" ht="38.450000000000003" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="119" t="s">
+      <c r="E3" s="171" t="s">
         <v>184</v>
       </c>
-      <c r="F3" s="119"/>
-      <c r="G3" s="120"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="172"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="119" t="s">
+      <c r="I3" s="171" t="s">
         <v>118</v>
       </c>
-      <c r="J3" s="119"/>
-      <c r="K3" s="120"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="172"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="119" t="s">
+      <c r="M3" s="171" t="s">
         <v>183</v>
       </c>
-      <c r="N3" s="119"/>
-      <c r="O3" s="120"/>
+      <c r="N3" s="171"/>
+      <c r="O3" s="172"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="121">
+      <c r="Q3" s="173">
         <v>45069</v>
       </c>
-      <c r="R3" s="121"/>
-      <c r="S3" s="122"/>
+      <c r="R3" s="173"/>
+      <c r="S3" s="174"/>
       <c r="T3" s="1"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="99"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
@@ -7294,53 +7294,53 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:27">
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="131" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="112"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="111" t="s">
+      <c r="E5" s="132"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="112"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="111" t="s">
+      <c r="H5" s="132"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="131" t="s">
         <v>120</v>
       </c>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="111" t="s">
+      <c r="K5" s="132"/>
+      <c r="L5" s="132"/>
+      <c r="M5" s="132"/>
+      <c r="N5" s="132"/>
+      <c r="O5" s="133"/>
+      <c r="P5" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="117"/>
+      <c r="Q5" s="132"/>
+      <c r="R5" s="132"/>
+      <c r="S5" s="137"/>
       <c r="U5" s="16"/>
     </row>
-    <row r="6" spans="3:27" ht="18.600000000000001" thickBot="1">
-      <c r="C6" s="108"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="116"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="115"/>
-      <c r="R6" s="115"/>
-      <c r="S6" s="118"/>
+    <row r="6" spans="3:27" ht="15" thickBot="1">
+      <c r="C6" s="128"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="136"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="135"/>
+      <c r="R6" s="135"/>
+      <c r="S6" s="138"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>105</v>
@@ -7365,28 +7365,28 @@
       <c r="C7" s="42">
         <v>1</v>
       </c>
-      <c r="D7" s="123" t="s">
+      <c r="D7" s="155" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="124"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="123" t="s">
+      <c r="E7" s="156"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="124"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="241" t="s">
+      <c r="H7" s="156"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="242"/>
-      <c r="L7" s="242"/>
-      <c r="M7" s="242"/>
-      <c r="N7" s="242"/>
-      <c r="O7" s="243"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="124"/>
-      <c r="R7" s="124"/>
-      <c r="S7" s="126"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
+      <c r="M7" s="165"/>
+      <c r="N7" s="165"/>
+      <c r="O7" s="166"/>
+      <c r="P7" s="155"/>
+      <c r="Q7" s="156"/>
+      <c r="R7" s="156"/>
+      <c r="S7" s="157"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>128</v>
@@ -7401,24 +7401,24 @@
       <c r="C8" s="42">
         <v>2</v>
       </c>
-      <c r="D8" s="127" t="s">
+      <c r="D8" s="168" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="128"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="123" t="s">
+      <c r="E8" s="169"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="155" t="s">
         <v>258</v>
       </c>
-      <c r="H8" s="124"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="244" t="s">
+      <c r="H8" s="156"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="162" t="s">
         <v>259</v>
       </c>
-      <c r="K8" s="242"/>
-      <c r="L8" s="242"/>
-      <c r="M8" s="242"/>
-      <c r="N8" s="242"/>
-      <c r="O8" s="243"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="165"/>
+      <c r="M8" s="165"/>
+      <c r="N8" s="165"/>
+      <c r="O8" s="166"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
@@ -7473,28 +7473,28 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="3:27" ht="136.80000000000001" customHeight="1">
+    <row r="10" spans="3:27" ht="136.9" customHeight="1">
       <c r="C10" s="42">
         <v>3</v>
       </c>
-      <c r="D10" s="131" t="s">
+      <c r="D10" s="158" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="132"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="123" t="s">
+      <c r="E10" s="159"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="155" t="s">
         <v>260</v>
       </c>
-      <c r="H10" s="124"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="244" t="s">
+      <c r="H10" s="156"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="162" t="s">
         <v>261</v>
       </c>
-      <c r="K10" s="245"/>
-      <c r="L10" s="245"/>
-      <c r="M10" s="245"/>
-      <c r="N10" s="245"/>
-      <c r="O10" s="246"/>
+      <c r="K10" s="163"/>
+      <c r="L10" s="163"/>
+      <c r="M10" s="163"/>
+      <c r="N10" s="163"/>
+      <c r="O10" s="164"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="44"/>
@@ -7515,7 +7515,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="3:27" ht="148.80000000000001" customHeight="1">
+    <row r="11" spans="3:27" ht="148.9" customHeight="1">
       <c r="C11" s="49"/>
       <c r="D11" s="50"/>
       <c r="E11" s="51"/>
@@ -7549,28 +7549,28 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="3:27" ht="18.600000000000001" thickBot="1">
+    <row r="12" spans="3:27" ht="15" thickBot="1">
       <c r="C12" s="42">
         <v>4</v>
       </c>
-      <c r="D12" s="123" t="s">
+      <c r="D12" s="155" t="s">
         <v>127</v>
       </c>
-      <c r="E12" s="124"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="123" t="s">
+      <c r="E12" s="156"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="124"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="244" t="s">
+      <c r="H12" s="156"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="242"/>
-      <c r="L12" s="242"/>
-      <c r="M12" s="242"/>
-      <c r="N12" s="242"/>
-      <c r="O12" s="243"/>
+      <c r="K12" s="165"/>
+      <c r="L12" s="165"/>
+      <c r="M12" s="165"/>
+      <c r="N12" s="165"/>
+      <c r="O12" s="166"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
@@ -7599,10 +7599,10 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="139"/>
-      <c r="Q13" s="140"/>
-      <c r="R13" s="140"/>
-      <c r="S13" s="141"/>
+      <c r="P13" s="152"/>
+      <c r="Q13" s="153"/>
+      <c r="R13" s="153"/>
+      <c r="S13" s="154"/>
       <c r="U13" s="16"/>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -7625,10 +7625,10 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="123"/>
-      <c r="Q14" s="124"/>
-      <c r="R14" s="124"/>
-      <c r="S14" s="126"/>
+      <c r="P14" s="155"/>
+      <c r="Q14" s="156"/>
+      <c r="R14" s="156"/>
+      <c r="S14" s="157"/>
       <c r="U14" s="16"/>
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
@@ -8209,24 +8209,24 @@
       <c r="Z36" s="19"/>
       <c r="AA36" s="19"/>
     </row>
-    <row r="37" spans="3:27" ht="18.600000000000001" thickBot="1">
+    <row r="37" spans="3:27" ht="15" thickBot="1">
       <c r="C37" s="5"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
-      <c r="L37" s="97"/>
-      <c r="M37" s="97"/>
-      <c r="N37" s="97"/>
-      <c r="O37" s="97"/>
-      <c r="P37" s="97"/>
-      <c r="Q37" s="97"/>
-      <c r="R37" s="97"/>
-      <c r="S37" s="98"/>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
+      <c r="N37" s="149"/>
+      <c r="O37" s="149"/>
+      <c r="P37" s="149"/>
+      <c r="Q37" s="149"/>
+      <c r="R37" s="149"/>
+      <c r="S37" s="150"/>
       <c r="U37" s="16"/>
       <c r="V37" s="21"/>
       <c r="W37" s="21"/>
@@ -8370,6 +8370,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:O8"/>
     <mergeCell ref="V2:Y3"/>
     <mergeCell ref="P13:S13"/>
     <mergeCell ref="P14:S14"/>
@@ -8386,21 +8401,6 @@
     <mergeCell ref="J12:O12"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="P5:S6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8416,95 +8416,95 @@
       <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="2.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.09765625" style="1" customWidth="1"/>
-    <col min="5" max="19" width="12.19921875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="16.8984375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="2.19921875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="30.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="1" customWidth="1"/>
+    <col min="5" max="19" width="12.25" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16.875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="2.25" style="1" customWidth="1"/>
+    <col min="22" max="22" width="30.75" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="44.5" style="1" customWidth="1"/>
-    <col min="24" max="24" width="34.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.09765625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="34.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.125" style="1" customWidth="1"/>
     <col min="26" max="26" width="18" style="1" customWidth="1"/>
-    <col min="27" max="27" width="32.296875" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.69921875" style="1"/>
+    <col min="27" max="27" width="32.25" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:28" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="3:28" ht="37.049999999999997" customHeight="1">
-      <c r="C2" s="102" t="s">
+    <row r="1" spans="3:28" ht="15" thickBot="1"/>
+    <row r="2" spans="3:28" ht="37.15" customHeight="1">
+      <c r="C2" s="122" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="105"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="125"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-    </row>
-    <row r="3" spans="3:28" s="23" customFormat="1" ht="38.549999999999997" customHeight="1" thickBot="1">
+      <c r="V2" s="98"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+    </row>
+    <row r="3" spans="3:28" s="23" customFormat="1" ht="38.65" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="119" t="s">
+      <c r="E3" s="171" t="s">
         <v>184</v>
       </c>
-      <c r="F3" s="119"/>
-      <c r="G3" s="120"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="172"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="119" t="s">
+      <c r="I3" s="171" t="s">
         <v>118</v>
       </c>
-      <c r="J3" s="119"/>
-      <c r="K3" s="120"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="172"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="119" t="s">
+      <c r="M3" s="171" t="s">
         <v>183</v>
       </c>
-      <c r="N3" s="119"/>
-      <c r="O3" s="120"/>
+      <c r="N3" s="171"/>
+      <c r="O3" s="172"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="121">
+      <c r="Q3" s="173">
         <v>45069</v>
       </c>
-      <c r="R3" s="121"/>
-      <c r="S3" s="122"/>
+      <c r="R3" s="173"/>
+      <c r="S3" s="174"/>
       <c r="T3" s="1"/>
       <c r="U3" s="16"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="99"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="3:28" ht="71.400000000000006" customHeight="1" thickBot="1">
+    <row r="4" spans="3:28" ht="71.45" customHeight="1" thickBot="1">
       <c r="C4" s="2"/>
       <c r="S4" s="3"/>
       <c r="T4" s="17" t="s">
@@ -8517,53 +8517,53 @@
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="3:28">
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="131" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="112"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="111" t="s">
+      <c r="E5" s="132"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="112"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="111" t="s">
+      <c r="H5" s="132"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="131" t="s">
         <v>120</v>
       </c>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="111" t="s">
+      <c r="K5" s="132"/>
+      <c r="L5" s="132"/>
+      <c r="M5" s="132"/>
+      <c r="N5" s="132"/>
+      <c r="O5" s="133"/>
+      <c r="P5" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="117"/>
+      <c r="Q5" s="132"/>
+      <c r="R5" s="132"/>
+      <c r="S5" s="137"/>
       <c r="U5" s="16"/>
     </row>
-    <row r="6" spans="3:28" ht="18.600000000000001" thickBot="1">
-      <c r="C6" s="108"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="116"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="115"/>
-      <c r="R6" s="115"/>
-      <c r="S6" s="118"/>
+    <row r="6" spans="3:28" ht="15" thickBot="1">
+      <c r="C6" s="128"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="136"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="135"/>
+      <c r="R6" s="135"/>
+      <c r="S6" s="138"/>
       <c r="U6" s="16"/>
       <c r="V6" s="20" t="s">
         <v>105</v>
@@ -8588,28 +8588,28 @@
       <c r="C7" s="42">
         <v>4</v>
       </c>
-      <c r="D7" s="123" t="s">
+      <c r="D7" s="155" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="124"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="123" t="s">
+      <c r="E7" s="156"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="124"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="123" t="s">
+      <c r="H7" s="156"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="124"/>
-      <c r="R7" s="124"/>
-      <c r="S7" s="126"/>
+      <c r="K7" s="156"/>
+      <c r="L7" s="156"/>
+      <c r="M7" s="156"/>
+      <c r="N7" s="156"/>
+      <c r="O7" s="161"/>
+      <c r="P7" s="155"/>
+      <c r="Q7" s="156"/>
+      <c r="R7" s="156"/>
+      <c r="S7" s="157"/>
       <c r="U7" s="16"/>
       <c r="V7" s="46" t="s">
         <v>128</v>
@@ -8624,24 +8624,24 @@
       <c r="C8" s="42">
         <v>5</v>
       </c>
-      <c r="D8" s="127" t="s">
+      <c r="D8" s="168" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="128"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="123" t="s">
+      <c r="E8" s="169"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="155" t="s">
         <v>123</v>
       </c>
-      <c r="H8" s="124"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="130" t="s">
+      <c r="H8" s="156"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="175" t="s">
         <v>124</v>
       </c>
-      <c r="K8" s="124"/>
-      <c r="L8" s="124"/>
-      <c r="M8" s="124"/>
-      <c r="N8" s="124"/>
-      <c r="O8" s="125"/>
+      <c r="K8" s="156"/>
+      <c r="L8" s="156"/>
+      <c r="M8" s="156"/>
+      <c r="N8" s="156"/>
+      <c r="O8" s="161"/>
       <c r="P8" s="43"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
@@ -8700,24 +8700,24 @@
       <c r="C10" s="42">
         <v>6</v>
       </c>
-      <c r="D10" s="131" t="s">
+      <c r="D10" s="158" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="132"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="123" t="s">
+      <c r="E10" s="159"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="124"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="130" t="s">
+      <c r="H10" s="156"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="175" t="s">
         <v>125</v>
       </c>
-      <c r="K10" s="134"/>
-      <c r="L10" s="134"/>
-      <c r="M10" s="134"/>
-      <c r="N10" s="134"/>
-      <c r="O10" s="135"/>
+      <c r="K10" s="176"/>
+      <c r="L10" s="176"/>
+      <c r="M10" s="176"/>
+      <c r="N10" s="176"/>
+      <c r="O10" s="177"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="44"/>
@@ -8776,24 +8776,24 @@
       <c r="C12" s="42">
         <v>7</v>
       </c>
-      <c r="D12" s="136" t="s">
+      <c r="D12" s="178" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="137"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="123" t="s">
+      <c r="E12" s="179"/>
+      <c r="F12" s="180"/>
+      <c r="G12" s="155" t="s">
         <v>84</v>
       </c>
-      <c r="H12" s="124"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="130" t="s">
+      <c r="H12" s="156"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="175" t="s">
         <v>126</v>
       </c>
-      <c r="K12" s="134"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="134"/>
-      <c r="N12" s="134"/>
-      <c r="O12" s="135"/>
+      <c r="K12" s="176"/>
+      <c r="L12" s="176"/>
+      <c r="M12" s="176"/>
+      <c r="N12" s="176"/>
+      <c r="O12" s="177"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
@@ -8852,24 +8852,24 @@
       <c r="C14" s="42">
         <v>8</v>
       </c>
-      <c r="D14" s="123" t="s">
+      <c r="D14" s="155" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="124"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="123" t="s">
+      <c r="E14" s="156"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="124"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="123" t="s">
+      <c r="H14" s="156"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="124"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="124"/>
-      <c r="N14" s="124"/>
-      <c r="O14" s="125"/>
+      <c r="K14" s="156"/>
+      <c r="L14" s="156"/>
+      <c r="M14" s="156"/>
+      <c r="N14" s="156"/>
+      <c r="O14" s="161"/>
       <c r="P14" s="43"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="44"/>
@@ -8898,10 +8898,10 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="139"/>
-      <c r="Q15" s="140"/>
-      <c r="R15" s="140"/>
-      <c r="S15" s="141"/>
+      <c r="P15" s="152"/>
+      <c r="Q15" s="153"/>
+      <c r="R15" s="153"/>
+      <c r="S15" s="154"/>
       <c r="U15" s="16"/>
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
@@ -8924,10 +8924,10 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="124"/>
-      <c r="R16" s="124"/>
-      <c r="S16" s="126"/>
+      <c r="P16" s="155"/>
+      <c r="Q16" s="156"/>
+      <c r="R16" s="156"/>
+      <c r="S16" s="157"/>
       <c r="U16" s="16"/>
       <c r="V16" s="21"/>
       <c r="W16" s="21"/>
@@ -9508,24 +9508,24 @@
       <c r="Z38" s="19"/>
       <c r="AA38" s="19"/>
     </row>
-    <row r="39" spans="3:27" ht="18.600000000000001" thickBot="1">
+    <row r="39" spans="3:27" ht="15" thickBot="1">
       <c r="C39" s="5"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="97"/>
-      <c r="J39" s="97"/>
-      <c r="K39" s="97"/>
-      <c r="L39" s="97"/>
-      <c r="M39" s="97"/>
-      <c r="N39" s="97"/>
-      <c r="O39" s="97"/>
-      <c r="P39" s="97"/>
-      <c r="Q39" s="97"/>
-      <c r="R39" s="97"/>
-      <c r="S39" s="98"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
+      <c r="N39" s="149"/>
+      <c r="O39" s="149"/>
+      <c r="P39" s="149"/>
+      <c r="Q39" s="149"/>
+      <c r="R39" s="149"/>
+      <c r="S39" s="150"/>
       <c r="U39" s="16"/>
       <c r="V39" s="19"/>
       <c r="W39" s="19"/>
@@ -9651,12 +9651,18 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="P5:S6"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="J14:O14"/>
@@ -9673,18 +9679,12 @@
     <mergeCell ref="J7:O7"/>
     <mergeCell ref="P7:S7"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9700,114 +9700,114 @@
       <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="2.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.09765625" style="1" customWidth="1"/>
-    <col min="5" max="9" width="12.19921875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.59765625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.3984375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.796875" style="1" customWidth="1"/>
-    <col min="13" max="15" width="12.19921875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.19921875" style="142" customWidth="1"/>
-    <col min="17" max="19" width="12.19921875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="14.59765625" style="142" customWidth="1"/>
-    <col min="21" max="21" width="14.3984375" style="142" customWidth="1"/>
-    <col min="22" max="22" width="19.09765625" style="142" customWidth="1"/>
-    <col min="23" max="25" width="12.19921875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="14.19921875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="16.8984375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="2.19921875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="30.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="1" customWidth="1"/>
+    <col min="5" max="9" width="12.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.75" style="1" customWidth="1"/>
+    <col min="13" max="15" width="12.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.25" style="63" customWidth="1"/>
+    <col min="17" max="19" width="12.25" style="1" customWidth="1"/>
+    <col min="20" max="20" width="14.625" style="63" customWidth="1"/>
+    <col min="21" max="21" width="14.375" style="63" customWidth="1"/>
+    <col min="22" max="22" width="19.125" style="63" customWidth="1"/>
+    <col min="23" max="25" width="12.25" style="1" customWidth="1"/>
+    <col min="26" max="26" width="14.25" style="1" customWidth="1"/>
+    <col min="27" max="27" width="16.875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="2.25" style="1" customWidth="1"/>
+    <col min="29" max="29" width="30.75" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="44.5" style="1" customWidth="1"/>
-    <col min="31" max="31" width="34.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.09765625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="34.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.125" style="1" customWidth="1"/>
     <col min="33" max="33" width="18" style="1" customWidth="1"/>
-    <col min="34" max="34" width="32.296875" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="8.69921875" style="1"/>
+    <col min="34" max="34" width="32.25" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:34" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="3:34" ht="37.049999999999997" customHeight="1">
-      <c r="C2" s="102" t="s">
+    <row r="1" spans="3:34" ht="15" thickBot="1"/>
+    <row r="2" spans="3:34" ht="37.15" customHeight="1">
+      <c r="C2" s="122" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
-      <c r="Z2" s="105"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124"/>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="124"/>
+      <c r="Z2" s="125"/>
       <c r="AB2" s="16"/>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="71"/>
-    </row>
-    <row r="3" spans="3:34" ht="38.549999999999997" customHeight="1" thickBot="1">
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="99"/>
+      <c r="AE2" s="99"/>
+      <c r="AF2" s="99"/>
+    </row>
+    <row r="3" spans="3:34" ht="38.65" customHeight="1" thickBot="1">
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="171" t="s">
         <v>184</v>
       </c>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="120"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="172"/>
       <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="119" t="s">
+      <c r="I3" s="171" t="s">
         <v>118</v>
       </c>
-      <c r="J3" s="119"/>
-      <c r="K3" s="120"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="172"/>
       <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="119" t="s">
+      <c r="M3" s="171" t="s">
         <v>183</v>
       </c>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="120"/>
+      <c r="N3" s="171"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="172"/>
       <c r="Q3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="121">
+      <c r="R3" s="173">
         <v>45069</v>
       </c>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121"/>
-      <c r="W3" s="121"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="122"/>
+      <c r="S3" s="173"/>
+      <c r="T3" s="173"/>
+      <c r="U3" s="173"/>
+      <c r="V3" s="173"/>
+      <c r="W3" s="173"/>
+      <c r="X3" s="173"/>
+      <c r="Y3" s="173"/>
+      <c r="Z3" s="174"/>
       <c r="AB3" s="16"/>
-      <c r="AC3" s="71"/>
-      <c r="AD3" s="71"/>
-      <c r="AE3" s="71"/>
-      <c r="AF3" s="71"/>
+      <c r="AC3" s="99"/>
+      <c r="AD3" s="99"/>
+      <c r="AE3" s="99"/>
+      <c r="AF3" s="99"/>
     </row>
     <row r="4" spans="3:34" ht="99" customHeight="1" thickBot="1">
       <c r="C4" s="2"/>
@@ -9822,75 +9822,75 @@
       <c r="AD4" s="17"/>
     </row>
     <row r="5" spans="3:34">
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="220" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="144" t="s">
+      <c r="D5" s="213" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144" t="s">
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213" t="s">
         <v>186</v>
       </c>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="144" t="s">
+      <c r="H5" s="213"/>
+      <c r="I5" s="213"/>
+      <c r="J5" s="213" t="s">
         <v>187</v>
       </c>
-      <c r="K5" s="144"/>
-      <c r="L5" s="144"/>
-      <c r="M5" s="145" t="s">
+      <c r="K5" s="213"/>
+      <c r="L5" s="213"/>
+      <c r="M5" s="222" t="s">
         <v>188</v>
       </c>
-      <c r="N5" s="146"/>
-      <c r="O5" s="147"/>
-      <c r="P5" s="144" t="s">
+      <c r="N5" s="223"/>
+      <c r="O5" s="224"/>
+      <c r="P5" s="213" t="s">
         <v>189</v>
       </c>
-      <c r="Q5" s="144" t="s">
+      <c r="Q5" s="213" t="s">
         <v>190</v>
       </c>
-      <c r="R5" s="144"/>
-      <c r="S5" s="144"/>
-      <c r="T5" s="144" t="s">
+      <c r="R5" s="213"/>
+      <c r="S5" s="213"/>
+      <c r="T5" s="213" t="s">
         <v>191</v>
       </c>
-      <c r="U5" s="144"/>
-      <c r="V5" s="144"/>
-      <c r="W5" s="144" t="s">
+      <c r="U5" s="213"/>
+      <c r="V5" s="213"/>
+      <c r="W5" s="213" t="s">
         <v>9</v>
       </c>
-      <c r="X5" s="144"/>
-      <c r="Y5" s="144"/>
-      <c r="Z5" s="148"/>
+      <c r="X5" s="213"/>
+      <c r="Y5" s="213"/>
+      <c r="Z5" s="215"/>
       <c r="AB5" s="16"/>
     </row>
-    <row r="6" spans="3:34" ht="18.600000000000001" thickBot="1">
-      <c r="C6" s="149"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="150"/>
-      <c r="L6" s="150"/>
-      <c r="M6" s="151"/>
-      <c r="N6" s="152"/>
-      <c r="O6" s="153"/>
-      <c r="P6" s="150"/>
-      <c r="Q6" s="150"/>
-      <c r="R6" s="150"/>
-      <c r="S6" s="150"/>
-      <c r="T6" s="150"/>
-      <c r="U6" s="150"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="150"/>
-      <c r="X6" s="150"/>
-      <c r="Y6" s="150"/>
-      <c r="Z6" s="154"/>
+    <row r="6" spans="3:34" ht="15" thickBot="1">
+      <c r="C6" s="221"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="214"/>
+      <c r="F6" s="214"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="214"/>
+      <c r="I6" s="214"/>
+      <c r="J6" s="214"/>
+      <c r="K6" s="214"/>
+      <c r="L6" s="214"/>
+      <c r="M6" s="225"/>
+      <c r="N6" s="226"/>
+      <c r="O6" s="227"/>
+      <c r="P6" s="214"/>
+      <c r="Q6" s="214"/>
+      <c r="R6" s="214"/>
+      <c r="S6" s="214"/>
+      <c r="T6" s="214"/>
+      <c r="U6" s="214"/>
+      <c r="V6" s="214"/>
+      <c r="W6" s="214"/>
+      <c r="X6" s="214"/>
+      <c r="Y6" s="214"/>
+      <c r="Z6" s="216"/>
       <c r="AB6" s="16"/>
       <c r="AC6" s="20" t="s">
         <v>105</v>
@@ -9911,47 +9911,47 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="3:34" ht="34.950000000000003" customHeight="1">
-      <c r="C7" s="155">
+    <row r="7" spans="3:34" ht="34.9" customHeight="1">
+      <c r="C7" s="64">
         <v>1</v>
       </c>
-      <c r="D7" s="156" t="s">
+      <c r="D7" s="217" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="157"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="156" t="s">
+      <c r="E7" s="218"/>
+      <c r="F7" s="219"/>
+      <c r="G7" s="217" t="s">
         <v>192</v>
       </c>
-      <c r="H7" s="157"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="159" t="s">
+      <c r="H7" s="218"/>
+      <c r="I7" s="219"/>
+      <c r="J7" s="198" t="s">
         <v>193</v>
       </c>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="156" t="s">
+      <c r="K7" s="198"/>
+      <c r="L7" s="198"/>
+      <c r="M7" s="217" t="s">
         <v>194</v>
       </c>
-      <c r="N7" s="157"/>
-      <c r="O7" s="158"/>
-      <c r="P7" s="160" t="s">
+      <c r="N7" s="218"/>
+      <c r="O7" s="219"/>
+      <c r="P7" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="Q7" s="156" t="s">
+      <c r="Q7" s="217" t="s">
         <v>196</v>
       </c>
-      <c r="R7" s="157"/>
-      <c r="S7" s="158"/>
-      <c r="T7" s="157" t="s">
+      <c r="R7" s="218"/>
+      <c r="S7" s="219"/>
+      <c r="T7" s="218" t="s">
         <v>197</v>
       </c>
-      <c r="U7" s="157"/>
-      <c r="V7" s="158"/>
-      <c r="W7" s="161"/>
-      <c r="X7" s="162"/>
-      <c r="Y7" s="162"/>
-      <c r="Z7" s="163"/>
+      <c r="U7" s="218"/>
+      <c r="V7" s="219"/>
+      <c r="W7" s="210"/>
+      <c r="X7" s="211"/>
+      <c r="Y7" s="211"/>
+      <c r="Z7" s="212"/>
       <c r="AB7" s="16"/>
       <c r="AC7" s="46" t="s">
         <v>128</v>
@@ -9962,47 +9962,47 @@
       <c r="AG7" s="48"/>
       <c r="AH7" s="48"/>
     </row>
-    <row r="8" spans="3:34" ht="34.950000000000003" customHeight="1">
-      <c r="C8" s="164">
+    <row r="8" spans="3:34" ht="34.9" customHeight="1">
+      <c r="C8" s="66">
         <v>2</v>
       </c>
-      <c r="D8" s="165" t="s">
+      <c r="D8" s="191" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="166"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="165" t="s">
+      <c r="E8" s="192"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="191" t="s">
         <v>192</v>
       </c>
-      <c r="H8" s="166"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="168" t="s">
+      <c r="H8" s="192"/>
+      <c r="I8" s="193"/>
+      <c r="J8" s="194" t="s">
         <v>193</v>
       </c>
-      <c r="K8" s="168"/>
-      <c r="L8" s="168"/>
-      <c r="M8" s="169" t="s">
+      <c r="K8" s="194"/>
+      <c r="L8" s="194"/>
+      <c r="M8" s="199" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="169"/>
-      <c r="O8" s="169"/>
-      <c r="P8" s="170" t="s">
+      <c r="N8" s="199"/>
+      <c r="O8" s="199"/>
+      <c r="P8" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="Q8" s="169" t="s">
+      <c r="Q8" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="R8" s="169"/>
-      <c r="S8" s="169"/>
-      <c r="T8" s="169" t="s">
+      <c r="R8" s="199"/>
+      <c r="S8" s="199"/>
+      <c r="T8" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="U8" s="169"/>
-      <c r="V8" s="169"/>
-      <c r="W8" s="171"/>
-      <c r="X8" s="172"/>
-      <c r="Y8" s="172"/>
-      <c r="Z8" s="173"/>
+      <c r="U8" s="199"/>
+      <c r="V8" s="199"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="69"/>
+      <c r="Z8" s="70"/>
       <c r="AB8" s="16"/>
       <c r="AC8" s="46" t="s">
         <v>128</v>
@@ -10013,47 +10013,47 @@
       <c r="AG8" s="48"/>
       <c r="AH8" s="48"/>
     </row>
-    <row r="9" spans="3:34" ht="34.950000000000003" customHeight="1">
-      <c r="C9" s="164">
+    <row r="9" spans="3:34" ht="34.9" customHeight="1">
+      <c r="C9" s="66">
         <v>3</v>
       </c>
-      <c r="D9" s="165" t="s">
+      <c r="D9" s="191" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="166"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="165" t="s">
+      <c r="E9" s="192"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="191" t="s">
         <v>192</v>
       </c>
-      <c r="H9" s="166"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="169" t="s">
+      <c r="H9" s="192"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="199" t="s">
         <v>200</v>
       </c>
-      <c r="K9" s="169"/>
-      <c r="L9" s="169"/>
-      <c r="M9" s="174" t="s">
+      <c r="K9" s="199"/>
+      <c r="L9" s="199"/>
+      <c r="M9" s="209" t="s">
         <v>194</v>
       </c>
-      <c r="N9" s="175"/>
-      <c r="O9" s="176"/>
-      <c r="P9" s="170" t="s">
+      <c r="N9" s="200"/>
+      <c r="O9" s="201"/>
+      <c r="P9" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="Q9" s="169" t="s">
+      <c r="Q9" s="199" t="s">
         <v>201</v>
       </c>
-      <c r="R9" s="169"/>
-      <c r="S9" s="169"/>
-      <c r="T9" s="169" t="s">
+      <c r="R9" s="199"/>
+      <c r="S9" s="199"/>
+      <c r="T9" s="199" t="s">
         <v>202</v>
       </c>
-      <c r="U9" s="169"/>
-      <c r="V9" s="169"/>
-      <c r="W9" s="171"/>
-      <c r="X9" s="172"/>
-      <c r="Y9" s="172"/>
-      <c r="Z9" s="173"/>
+      <c r="U9" s="199"/>
+      <c r="V9" s="199"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="69"/>
+      <c r="Y9" s="69"/>
+      <c r="Z9" s="70"/>
       <c r="AB9" s="16"/>
       <c r="AC9" s="46" t="s">
         <v>128</v>
@@ -10064,47 +10064,47 @@
       <c r="AG9" s="48"/>
       <c r="AH9" s="48"/>
     </row>
-    <row r="10" spans="3:34" ht="34.950000000000003" customHeight="1">
-      <c r="C10" s="164">
+    <row r="10" spans="3:34" ht="34.9" customHeight="1">
+      <c r="C10" s="66">
         <v>4</v>
       </c>
-      <c r="D10" s="177" t="s">
+      <c r="D10" s="187" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="178"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="177" t="s">
+      <c r="E10" s="206"/>
+      <c r="F10" s="207"/>
+      <c r="G10" s="187" t="s">
         <v>203</v>
       </c>
-      <c r="H10" s="178"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="159" t="s">
+      <c r="H10" s="206"/>
+      <c r="I10" s="207"/>
+      <c r="J10" s="198" t="s">
         <v>193</v>
       </c>
-      <c r="K10" s="159"/>
-      <c r="L10" s="159"/>
-      <c r="M10" s="180" t="s">
+      <c r="K10" s="198"/>
+      <c r="L10" s="198"/>
+      <c r="M10" s="208" t="s">
         <v>204</v>
       </c>
-      <c r="N10" s="180"/>
-      <c r="O10" s="180"/>
-      <c r="P10" s="170" t="s">
+      <c r="N10" s="208"/>
+      <c r="O10" s="208"/>
+      <c r="P10" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="Q10" s="169" t="s">
+      <c r="Q10" s="199" t="s">
         <v>205</v>
       </c>
-      <c r="R10" s="169"/>
-      <c r="S10" s="169"/>
-      <c r="T10" s="169" t="s">
+      <c r="R10" s="199"/>
+      <c r="S10" s="199"/>
+      <c r="T10" s="199" t="s">
         <v>206</v>
       </c>
-      <c r="U10" s="169"/>
-      <c r="V10" s="169"/>
-      <c r="W10" s="181"/>
-      <c r="X10" s="182"/>
-      <c r="Y10" s="182"/>
-      <c r="Z10" s="183"/>
+      <c r="U10" s="199"/>
+      <c r="V10" s="199"/>
+      <c r="W10" s="195"/>
+      <c r="X10" s="196"/>
+      <c r="Y10" s="196"/>
+      <c r="Z10" s="205"/>
       <c r="AB10" s="16"/>
       <c r="AC10" s="21" t="s">
         <v>270</v>
@@ -10119,31 +10119,31 @@
       <c r="AG10" s="21"/>
       <c r="AH10" s="21"/>
     </row>
-    <row r="11" spans="3:34" ht="34.950000000000003" customHeight="1">
-      <c r="C11" s="250"/>
-      <c r="D11" s="247"/>
-      <c r="E11" s="247"/>
-      <c r="F11" s="247"/>
-      <c r="G11" s="247"/>
-      <c r="H11" s="247"/>
-      <c r="I11" s="247"/>
-      <c r="J11" s="247"/>
-      <c r="K11" s="247"/>
-      <c r="L11" s="247"/>
-      <c r="M11" s="251"/>
-      <c r="N11" s="251"/>
-      <c r="O11" s="251"/>
-      <c r="P11" s="248"/>
-      <c r="Q11" s="248"/>
-      <c r="R11" s="248"/>
-      <c r="S11" s="248"/>
-      <c r="T11" s="248"/>
-      <c r="U11" s="248"/>
-      <c r="V11" s="248"/>
-      <c r="W11" s="248"/>
-      <c r="X11" s="248"/>
-      <c r="Y11" s="248"/>
-      <c r="Z11" s="249"/>
+    <row r="11" spans="3:34" ht="34.9" customHeight="1">
+      <c r="C11" s="88"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="86"/>
+      <c r="T11" s="86"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="86"/>
+      <c r="W11" s="86"/>
+      <c r="X11" s="86"/>
+      <c r="Y11" s="86"/>
+      <c r="Z11" s="87"/>
       <c r="AB11" s="16"/>
       <c r="AC11" s="21" t="s">
         <v>271</v>
@@ -10158,47 +10158,47 @@
       <c r="AG11" s="21"/>
       <c r="AH11" s="21"/>
     </row>
-    <row r="12" spans="3:34" ht="34.950000000000003" customHeight="1">
-      <c r="C12" s="164">
+    <row r="12" spans="3:34" ht="34.9" customHeight="1">
+      <c r="C12" s="66">
         <v>5</v>
       </c>
-      <c r="D12" s="165" t="s">
+      <c r="D12" s="191" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="166"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="165" t="s">
+      <c r="E12" s="192"/>
+      <c r="F12" s="193"/>
+      <c r="G12" s="191" t="s">
         <v>203</v>
       </c>
-      <c r="H12" s="166"/>
-      <c r="I12" s="167"/>
-      <c r="J12" s="168" t="s">
+      <c r="H12" s="192"/>
+      <c r="I12" s="193"/>
+      <c r="J12" s="194" t="s">
         <v>193</v>
       </c>
-      <c r="K12" s="168"/>
-      <c r="L12" s="168"/>
-      <c r="M12" s="184" t="s">
+      <c r="K12" s="194"/>
+      <c r="L12" s="194"/>
+      <c r="M12" s="202" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="184"/>
-      <c r="O12" s="184"/>
-      <c r="P12" s="170" t="s">
+      <c r="N12" s="202"/>
+      <c r="O12" s="202"/>
+      <c r="P12" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="Q12" s="169" t="s">
+      <c r="Q12" s="199" t="s">
         <v>207</v>
       </c>
-      <c r="R12" s="169"/>
-      <c r="S12" s="169"/>
-      <c r="T12" s="169" t="s">
+      <c r="R12" s="199"/>
+      <c r="S12" s="199"/>
+      <c r="T12" s="199" t="s">
         <v>208</v>
       </c>
-      <c r="U12" s="169"/>
-      <c r="V12" s="169"/>
-      <c r="W12" s="181"/>
-      <c r="X12" s="182"/>
-      <c r="Y12" s="182"/>
-      <c r="Z12" s="183"/>
+      <c r="U12" s="199"/>
+      <c r="V12" s="199"/>
+      <c r="W12" s="195"/>
+      <c r="X12" s="196"/>
+      <c r="Y12" s="196"/>
+      <c r="Z12" s="205"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="21" t="s">
         <v>272</v>
@@ -10213,31 +10213,31 @@
       <c r="AG12" s="21"/>
       <c r="AH12" s="21"/>
     </row>
-    <row r="13" spans="3:34" ht="34.950000000000003" customHeight="1">
-      <c r="C13" s="250"/>
-      <c r="D13" s="247"/>
-      <c r="E13" s="247"/>
-      <c r="F13" s="247"/>
-      <c r="G13" s="247"/>
-      <c r="H13" s="247"/>
-      <c r="I13" s="247"/>
-      <c r="J13" s="247"/>
-      <c r="K13" s="247"/>
-      <c r="L13" s="247"/>
-      <c r="M13" s="251"/>
-      <c r="N13" s="251"/>
-      <c r="O13" s="251"/>
-      <c r="P13" s="248"/>
-      <c r="Q13" s="248"/>
-      <c r="R13" s="248"/>
-      <c r="S13" s="248"/>
-      <c r="T13" s="248"/>
-      <c r="U13" s="248"/>
-      <c r="V13" s="248"/>
-      <c r="W13" s="248"/>
-      <c r="X13" s="248"/>
-      <c r="Y13" s="248"/>
-      <c r="Z13" s="249"/>
+    <row r="13" spans="3:34" ht="34.9" customHeight="1">
+      <c r="C13" s="88"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="86"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="86"/>
+      <c r="X13" s="86"/>
+      <c r="Y13" s="86"/>
+      <c r="Z13" s="87"/>
       <c r="AB13" s="16"/>
       <c r="AC13" s="21" t="s">
         <v>273</v>
@@ -10252,47 +10252,47 @@
       <c r="AG13" s="21"/>
       <c r="AH13" s="21"/>
     </row>
-    <row r="14" spans="3:34" ht="34.950000000000003" customHeight="1">
-      <c r="C14" s="164">
+    <row r="14" spans="3:34" ht="34.9" customHeight="1">
+      <c r="C14" s="66">
         <v>6</v>
       </c>
-      <c r="D14" s="165" t="s">
+      <c r="D14" s="191" t="s">
         <v>122</v>
       </c>
-      <c r="E14" s="166"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="165" t="s">
+      <c r="E14" s="192"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="191" t="s">
         <v>203</v>
       </c>
-      <c r="H14" s="166"/>
-      <c r="I14" s="167"/>
-      <c r="J14" s="168" t="s">
+      <c r="H14" s="192"/>
+      <c r="I14" s="193"/>
+      <c r="J14" s="194" t="s">
         <v>193</v>
       </c>
-      <c r="K14" s="168"/>
-      <c r="L14" s="168"/>
-      <c r="M14" s="184" t="s">
+      <c r="K14" s="194"/>
+      <c r="L14" s="194"/>
+      <c r="M14" s="202" t="s">
         <v>84</v>
       </c>
-      <c r="N14" s="184"/>
-      <c r="O14" s="184"/>
-      <c r="P14" s="170" t="s">
+      <c r="N14" s="202"/>
+      <c r="O14" s="202"/>
+      <c r="P14" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="Q14" s="169" t="s">
+      <c r="Q14" s="199" t="s">
         <v>209</v>
       </c>
-      <c r="R14" s="169"/>
-      <c r="S14" s="169"/>
-      <c r="T14" s="169" t="s">
+      <c r="R14" s="199"/>
+      <c r="S14" s="199"/>
+      <c r="T14" s="199" t="s">
         <v>210</v>
       </c>
-      <c r="U14" s="169"/>
-      <c r="V14" s="169"/>
-      <c r="W14" s="171"/>
-      <c r="X14" s="172"/>
-      <c r="Y14" s="172"/>
-      <c r="Z14" s="173"/>
+      <c r="U14" s="199"/>
+      <c r="V14" s="199"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="69"/>
+      <c r="Y14" s="69"/>
+      <c r="Z14" s="70"/>
       <c r="AB14" s="16"/>
       <c r="AC14" s="21" t="s">
         <v>274</v>
@@ -10307,31 +10307,31 @@
       <c r="AG14" s="21"/>
       <c r="AH14" s="21"/>
     </row>
-    <row r="15" spans="3:34" ht="34.950000000000003" customHeight="1">
-      <c r="C15" s="250"/>
-      <c r="D15" s="247"/>
-      <c r="E15" s="247"/>
-      <c r="F15" s="247"/>
-      <c r="G15" s="247"/>
-      <c r="H15" s="247"/>
-      <c r="I15" s="247"/>
-      <c r="J15" s="247"/>
-      <c r="K15" s="247"/>
-      <c r="L15" s="247"/>
-      <c r="M15" s="251"/>
-      <c r="N15" s="251"/>
-      <c r="O15" s="251"/>
-      <c r="P15" s="248"/>
-      <c r="Q15" s="248"/>
-      <c r="R15" s="248"/>
-      <c r="S15" s="248"/>
-      <c r="T15" s="248"/>
-      <c r="U15" s="248"/>
-      <c r="V15" s="248"/>
-      <c r="W15" s="248"/>
-      <c r="X15" s="248"/>
-      <c r="Y15" s="248"/>
-      <c r="Z15" s="249"/>
+    <row r="15" spans="3:34" ht="34.9" customHeight="1">
+      <c r="C15" s="88"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="86"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="86"/>
+      <c r="U15" s="86"/>
+      <c r="V15" s="86"/>
+      <c r="W15" s="86"/>
+      <c r="X15" s="86"/>
+      <c r="Y15" s="86"/>
+      <c r="Z15" s="87"/>
       <c r="AB15" s="16"/>
       <c r="AC15" s="21" t="s">
         <v>275</v>
@@ -10346,47 +10346,47 @@
       <c r="AG15" s="21"/>
       <c r="AH15" s="21"/>
     </row>
-    <row r="16" spans="3:34" ht="34.950000000000003" customHeight="1">
-      <c r="C16" s="164">
+    <row r="16" spans="3:34" ht="34.9" customHeight="1">
+      <c r="C16" s="66">
         <v>7</v>
       </c>
-      <c r="D16" s="165" t="s">
+      <c r="D16" s="191" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="175"/>
-      <c r="F16" s="176"/>
-      <c r="G16" s="165" t="s">
+      <c r="E16" s="200"/>
+      <c r="F16" s="201"/>
+      <c r="G16" s="191" t="s">
         <v>203</v>
       </c>
-      <c r="H16" s="166"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="168" t="s">
+      <c r="H16" s="192"/>
+      <c r="I16" s="193"/>
+      <c r="J16" s="194" t="s">
         <v>193</v>
       </c>
-      <c r="K16" s="168"/>
-      <c r="L16" s="168"/>
-      <c r="M16" s="184" t="s">
+      <c r="K16" s="194"/>
+      <c r="L16" s="194"/>
+      <c r="M16" s="202" t="s">
         <v>211</v>
       </c>
-      <c r="N16" s="184"/>
-      <c r="O16" s="184"/>
-      <c r="P16" s="170" t="s">
+      <c r="N16" s="202"/>
+      <c r="O16" s="202"/>
+      <c r="P16" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="Q16" s="169" t="s">
+      <c r="Q16" s="199" t="s">
         <v>212</v>
       </c>
-      <c r="R16" s="169"/>
-      <c r="S16" s="169"/>
-      <c r="T16" s="169" t="s">
+      <c r="R16" s="199"/>
+      <c r="S16" s="199"/>
+      <c r="T16" s="199" t="s">
         <v>213</v>
       </c>
-      <c r="U16" s="169"/>
-      <c r="V16" s="169"/>
-      <c r="W16" s="171"/>
-      <c r="X16" s="172"/>
-      <c r="Y16" s="172"/>
-      <c r="Z16" s="173"/>
+      <c r="U16" s="199"/>
+      <c r="V16" s="199"/>
+      <c r="W16" s="68"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="69"/>
+      <c r="Z16" s="70"/>
       <c r="AB16" s="16"/>
       <c r="AC16" s="21" t="s">
         <v>276</v>
@@ -10401,31 +10401,31 @@
       <c r="AG16" s="21"/>
       <c r="AH16" s="21"/>
     </row>
-    <row r="17" spans="3:34" ht="34.950000000000003" customHeight="1">
-      <c r="C17" s="250"/>
-      <c r="D17" s="247"/>
-      <c r="E17" s="247"/>
-      <c r="F17" s="247"/>
-      <c r="G17" s="247"/>
-      <c r="H17" s="247"/>
-      <c r="I17" s="247"/>
-      <c r="J17" s="247"/>
-      <c r="K17" s="247"/>
-      <c r="L17" s="247"/>
-      <c r="M17" s="251"/>
-      <c r="N17" s="251"/>
-      <c r="O17" s="251"/>
-      <c r="P17" s="248"/>
-      <c r="Q17" s="248"/>
-      <c r="R17" s="248"/>
-      <c r="S17" s="248"/>
-      <c r="T17" s="248"/>
-      <c r="U17" s="248"/>
-      <c r="V17" s="248"/>
-      <c r="W17" s="248"/>
-      <c r="X17" s="248"/>
-      <c r="Y17" s="248"/>
-      <c r="Z17" s="249"/>
+    <row r="17" spans="3:34" ht="34.9" customHeight="1">
+      <c r="C17" s="88"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="86"/>
+      <c r="S17" s="86"/>
+      <c r="T17" s="86"/>
+      <c r="U17" s="86"/>
+      <c r="V17" s="86"/>
+      <c r="W17" s="86"/>
+      <c r="X17" s="86"/>
+      <c r="Y17" s="86"/>
+      <c r="Z17" s="87"/>
       <c r="AB17" s="16"/>
       <c r="AC17" s="21" t="s">
         <v>277</v>
@@ -10440,47 +10440,47 @@
       <c r="AG17" s="21"/>
       <c r="AH17" s="21"/>
     </row>
-    <row r="18" spans="3:34" ht="34.950000000000003" customHeight="1">
-      <c r="C18" s="164">
+    <row r="18" spans="3:34" ht="34.9" customHeight="1">
+      <c r="C18" s="66">
         <v>8</v>
       </c>
-      <c r="D18" s="165" t="s">
+      <c r="D18" s="191" t="s">
         <v>122</v>
       </c>
-      <c r="E18" s="166"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="165" t="s">
+      <c r="E18" s="192"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="191" t="s">
         <v>203</v>
       </c>
-      <c r="H18" s="166"/>
-      <c r="I18" s="167"/>
-      <c r="J18" s="168" t="s">
+      <c r="H18" s="192"/>
+      <c r="I18" s="193"/>
+      <c r="J18" s="194" t="s">
         <v>193</v>
       </c>
-      <c r="K18" s="168"/>
-      <c r="L18" s="168"/>
-      <c r="M18" s="184" t="s">
+      <c r="K18" s="194"/>
+      <c r="L18" s="194"/>
+      <c r="M18" s="202" t="s">
         <v>214</v>
       </c>
-      <c r="N18" s="184"/>
-      <c r="O18" s="184"/>
-      <c r="P18" s="170" t="s">
+      <c r="N18" s="202"/>
+      <c r="O18" s="202"/>
+      <c r="P18" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="Q18" s="169" t="s">
+      <c r="Q18" s="199" t="s">
         <v>215</v>
       </c>
-      <c r="R18" s="169"/>
-      <c r="S18" s="169"/>
-      <c r="T18" s="169" t="s">
+      <c r="R18" s="199"/>
+      <c r="S18" s="199"/>
+      <c r="T18" s="199" t="s">
         <v>216</v>
       </c>
-      <c r="U18" s="169"/>
-      <c r="V18" s="169"/>
-      <c r="W18" s="171"/>
-      <c r="X18" s="172"/>
-      <c r="Y18" s="172"/>
-      <c r="Z18" s="173"/>
+      <c r="U18" s="199"/>
+      <c r="V18" s="199"/>
+      <c r="W18" s="68"/>
+      <c r="X18" s="69"/>
+      <c r="Y18" s="69"/>
+      <c r="Z18" s="70"/>
       <c r="AB18" s="16"/>
       <c r="AC18" s="21" t="s">
         <v>278</v>
@@ -10495,31 +10495,31 @@
       <c r="AG18" s="21"/>
       <c r="AH18" s="21"/>
     </row>
-    <row r="19" spans="3:34" ht="34.950000000000003" customHeight="1">
-      <c r="C19" s="250"/>
-      <c r="D19" s="247"/>
-      <c r="E19" s="247"/>
-      <c r="F19" s="247"/>
-      <c r="G19" s="247"/>
-      <c r="H19" s="247"/>
-      <c r="I19" s="247"/>
-      <c r="J19" s="247"/>
-      <c r="K19" s="247"/>
-      <c r="L19" s="247"/>
-      <c r="M19" s="251"/>
-      <c r="N19" s="251"/>
-      <c r="O19" s="251"/>
-      <c r="P19" s="248"/>
-      <c r="Q19" s="248"/>
-      <c r="R19" s="248"/>
-      <c r="S19" s="248"/>
-      <c r="T19" s="248"/>
-      <c r="U19" s="248"/>
-      <c r="V19" s="248"/>
-      <c r="W19" s="248"/>
-      <c r="X19" s="248"/>
-      <c r="Y19" s="248"/>
-      <c r="Z19" s="249"/>
+    <row r="19" spans="3:34" ht="34.9" customHeight="1">
+      <c r="C19" s="88"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="86"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="86"/>
+      <c r="T19" s="86"/>
+      <c r="U19" s="86"/>
+      <c r="V19" s="86"/>
+      <c r="W19" s="86"/>
+      <c r="X19" s="86"/>
+      <c r="Y19" s="86"/>
+      <c r="Z19" s="87"/>
       <c r="AB19" s="16"/>
       <c r="AC19" s="21" t="s">
         <v>279</v>
@@ -10534,47 +10534,47 @@
       <c r="AG19" s="21"/>
       <c r="AH19" s="21"/>
     </row>
-    <row r="20" spans="3:34" ht="34.950000000000003" customHeight="1">
-      <c r="C20" s="164">
+    <row r="20" spans="3:34" ht="34.9" customHeight="1">
+      <c r="C20" s="66">
         <v>9</v>
       </c>
-      <c r="D20" s="165" t="s">
+      <c r="D20" s="191" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="175"/>
-      <c r="F20" s="176"/>
-      <c r="G20" s="165" t="s">
+      <c r="E20" s="200"/>
+      <c r="F20" s="201"/>
+      <c r="G20" s="191" t="s">
         <v>203</v>
       </c>
-      <c r="H20" s="166"/>
-      <c r="I20" s="167"/>
-      <c r="J20" s="168" t="s">
+      <c r="H20" s="192"/>
+      <c r="I20" s="193"/>
+      <c r="J20" s="194" t="s">
         <v>193</v>
       </c>
-      <c r="K20" s="168"/>
-      <c r="L20" s="168"/>
-      <c r="M20" s="184" t="s">
+      <c r="K20" s="194"/>
+      <c r="L20" s="194"/>
+      <c r="M20" s="202" t="s">
         <v>217</v>
       </c>
-      <c r="N20" s="184"/>
-      <c r="O20" s="184"/>
-      <c r="P20" s="170" t="s">
+      <c r="N20" s="202"/>
+      <c r="O20" s="202"/>
+      <c r="P20" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="Q20" s="169" t="s">
+      <c r="Q20" s="199" t="s">
         <v>218</v>
       </c>
-      <c r="R20" s="169"/>
-      <c r="S20" s="169"/>
-      <c r="T20" s="169" t="s">
+      <c r="R20" s="199"/>
+      <c r="S20" s="199"/>
+      <c r="T20" s="199" t="s">
         <v>216</v>
       </c>
-      <c r="U20" s="169"/>
-      <c r="V20" s="169"/>
-      <c r="W20" s="171"/>
-      <c r="X20" s="172"/>
-      <c r="Y20" s="172"/>
-      <c r="Z20" s="173"/>
+      <c r="U20" s="199"/>
+      <c r="V20" s="199"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="69"/>
+      <c r="Y20" s="69"/>
+      <c r="Z20" s="70"/>
       <c r="AB20" s="16"/>
       <c r="AC20" s="21" t="s">
         <v>280</v>
@@ -10589,31 +10589,31 @@
       <c r="AG20" s="21"/>
       <c r="AH20" s="21"/>
     </row>
-    <row r="21" spans="3:34" ht="34.950000000000003" customHeight="1">
-      <c r="C21" s="250"/>
-      <c r="D21" s="247"/>
-      <c r="E21" s="247"/>
-      <c r="F21" s="247"/>
-      <c r="G21" s="247"/>
-      <c r="H21" s="247"/>
-      <c r="I21" s="247"/>
-      <c r="J21" s="247"/>
-      <c r="K21" s="247"/>
-      <c r="L21" s="247"/>
-      <c r="M21" s="251"/>
-      <c r="N21" s="251"/>
-      <c r="O21" s="251"/>
-      <c r="P21" s="248"/>
-      <c r="Q21" s="248"/>
-      <c r="R21" s="248"/>
-      <c r="S21" s="248"/>
-      <c r="T21" s="248"/>
-      <c r="U21" s="248"/>
-      <c r="V21" s="248"/>
-      <c r="W21" s="248"/>
-      <c r="X21" s="248"/>
-      <c r="Y21" s="248"/>
-      <c r="Z21" s="249"/>
+    <row r="21" spans="3:34" ht="34.9" customHeight="1">
+      <c r="C21" s="88"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="86"/>
+      <c r="T21" s="86"/>
+      <c r="U21" s="86"/>
+      <c r="V21" s="86"/>
+      <c r="W21" s="86"/>
+      <c r="X21" s="86"/>
+      <c r="Y21" s="86"/>
+      <c r="Z21" s="87"/>
       <c r="AB21" s="16"/>
       <c r="AC21" s="21" t="s">
         <v>281</v>
@@ -10628,47 +10628,47 @@
       <c r="AG21" s="21"/>
       <c r="AH21" s="21"/>
     </row>
-    <row r="22" spans="3:34" ht="34.950000000000003" customHeight="1">
-      <c r="C22" s="164">
+    <row r="22" spans="3:34" ht="34.9" customHeight="1">
+      <c r="C22" s="66">
         <v>10</v>
       </c>
-      <c r="D22" s="165" t="s">
+      <c r="D22" s="191" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="175"/>
-      <c r="F22" s="176"/>
-      <c r="G22" s="165" t="s">
+      <c r="E22" s="200"/>
+      <c r="F22" s="201"/>
+      <c r="G22" s="191" t="s">
         <v>203</v>
       </c>
-      <c r="H22" s="166"/>
-      <c r="I22" s="167"/>
-      <c r="J22" s="168" t="s">
+      <c r="H22" s="192"/>
+      <c r="I22" s="193"/>
+      <c r="J22" s="194" t="s">
         <v>193</v>
       </c>
-      <c r="K22" s="168"/>
-      <c r="L22" s="168"/>
-      <c r="M22" s="184" t="s">
+      <c r="K22" s="194"/>
+      <c r="L22" s="194"/>
+      <c r="M22" s="202" t="s">
         <v>219</v>
       </c>
-      <c r="N22" s="184"/>
-      <c r="O22" s="184"/>
-      <c r="P22" s="185" t="s">
+      <c r="N22" s="202"/>
+      <c r="O22" s="202"/>
+      <c r="P22" s="71" t="s">
         <v>195</v>
       </c>
-      <c r="Q22" s="169" t="s">
+      <c r="Q22" s="199" t="s">
         <v>220</v>
       </c>
-      <c r="R22" s="169"/>
-      <c r="S22" s="169"/>
-      <c r="T22" s="169" t="s">
+      <c r="R22" s="199"/>
+      <c r="S22" s="199"/>
+      <c r="T22" s="199" t="s">
         <v>216</v>
       </c>
-      <c r="U22" s="169"/>
-      <c r="V22" s="169"/>
-      <c r="W22" s="171"/>
-      <c r="X22" s="172"/>
-      <c r="Y22" s="172"/>
-      <c r="Z22" s="173"/>
+      <c r="U22" s="199"/>
+      <c r="V22" s="199"/>
+      <c r="W22" s="68"/>
+      <c r="X22" s="69"/>
+      <c r="Y22" s="69"/>
+      <c r="Z22" s="70"/>
       <c r="AB22" s="16"/>
       <c r="AC22" s="21" t="s">
         <v>282</v>
@@ -10683,31 +10683,31 @@
       <c r="AG22" s="21"/>
       <c r="AH22" s="21"/>
     </row>
-    <row r="23" spans="3:34" ht="34.950000000000003" customHeight="1">
-      <c r="C23" s="250"/>
-      <c r="D23" s="247"/>
-      <c r="E23" s="247"/>
-      <c r="F23" s="247"/>
-      <c r="G23" s="247"/>
-      <c r="H23" s="247"/>
-      <c r="I23" s="247"/>
-      <c r="J23" s="247"/>
-      <c r="K23" s="247"/>
-      <c r="L23" s="247"/>
-      <c r="M23" s="251"/>
-      <c r="N23" s="251"/>
-      <c r="O23" s="251"/>
-      <c r="P23" s="248"/>
-      <c r="Q23" s="248"/>
-      <c r="R23" s="248"/>
-      <c r="S23" s="248"/>
-      <c r="T23" s="248"/>
-      <c r="U23" s="248"/>
-      <c r="V23" s="248"/>
-      <c r="W23" s="248"/>
-      <c r="X23" s="248"/>
-      <c r="Y23" s="248"/>
-      <c r="Z23" s="249"/>
+    <row r="23" spans="3:34" ht="34.9" customHeight="1">
+      <c r="C23" s="88"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="86"/>
+      <c r="U23" s="86"/>
+      <c r="V23" s="86"/>
+      <c r="W23" s="86"/>
+      <c r="X23" s="86"/>
+      <c r="Y23" s="86"/>
+      <c r="Z23" s="87"/>
       <c r="AB23" s="16"/>
       <c r="AC23" s="21" t="s">
         <v>283</v>
@@ -10722,47 +10722,47 @@
       <c r="AG23" s="21"/>
       <c r="AH23" s="21"/>
     </row>
-    <row r="24" spans="3:34" ht="34.950000000000003" customHeight="1">
-      <c r="C24" s="164">
+    <row r="24" spans="3:34" ht="34.9" customHeight="1">
+      <c r="C24" s="66">
         <v>11</v>
       </c>
-      <c r="D24" s="165" t="s">
+      <c r="D24" s="191" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="175"/>
-      <c r="F24" s="176"/>
-      <c r="G24" s="165" t="s">
+      <c r="E24" s="200"/>
+      <c r="F24" s="201"/>
+      <c r="G24" s="191" t="s">
         <v>203</v>
       </c>
-      <c r="H24" s="166"/>
-      <c r="I24" s="167"/>
-      <c r="J24" s="186" t="s">
+      <c r="H24" s="192"/>
+      <c r="I24" s="193"/>
+      <c r="J24" s="204" t="s">
         <v>193</v>
       </c>
-      <c r="K24" s="186"/>
-      <c r="L24" s="186"/>
-      <c r="M24" s="184" t="s">
+      <c r="K24" s="204"/>
+      <c r="L24" s="204"/>
+      <c r="M24" s="202" t="s">
         <v>53</v>
       </c>
-      <c r="N24" s="184"/>
-      <c r="O24" s="184"/>
-      <c r="P24" s="170" t="s">
+      <c r="N24" s="202"/>
+      <c r="O24" s="202"/>
+      <c r="P24" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="Q24" s="169" t="s">
+      <c r="Q24" s="199" t="s">
         <v>221</v>
       </c>
-      <c r="R24" s="169"/>
-      <c r="S24" s="169"/>
-      <c r="T24" s="169" t="s">
+      <c r="R24" s="199"/>
+      <c r="S24" s="199"/>
+      <c r="T24" s="199" t="s">
         <v>222</v>
       </c>
-      <c r="U24" s="169"/>
-      <c r="V24" s="169"/>
-      <c r="W24" s="171"/>
-      <c r="X24" s="172"/>
-      <c r="Y24" s="172"/>
-      <c r="Z24" s="173"/>
+      <c r="U24" s="199"/>
+      <c r="V24" s="199"/>
+      <c r="W24" s="68"/>
+      <c r="X24" s="69"/>
+      <c r="Y24" s="69"/>
+      <c r="Z24" s="70"/>
       <c r="AB24" s="16"/>
       <c r="AC24" s="21" t="s">
         <v>284</v>
@@ -10777,31 +10777,31 @@
       <c r="AG24" s="21"/>
       <c r="AH24" s="21"/>
     </row>
-    <row r="25" spans="3:34" ht="34.950000000000003" customHeight="1">
-      <c r="C25" s="250"/>
-      <c r="D25" s="247"/>
-      <c r="E25" s="247"/>
-      <c r="F25" s="247"/>
-      <c r="G25" s="247"/>
-      <c r="H25" s="247"/>
-      <c r="I25" s="247"/>
-      <c r="J25" s="247"/>
-      <c r="K25" s="247"/>
-      <c r="L25" s="247"/>
-      <c r="M25" s="251"/>
-      <c r="N25" s="251"/>
-      <c r="O25" s="251"/>
-      <c r="P25" s="248"/>
-      <c r="Q25" s="248"/>
-      <c r="R25" s="248"/>
-      <c r="S25" s="248"/>
-      <c r="T25" s="248"/>
-      <c r="U25" s="248"/>
-      <c r="V25" s="248"/>
-      <c r="W25" s="248"/>
-      <c r="X25" s="248"/>
-      <c r="Y25" s="248"/>
-      <c r="Z25" s="249"/>
+    <row r="25" spans="3:34" ht="34.9" customHeight="1">
+      <c r="C25" s="88"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="89"/>
+      <c r="O25" s="89"/>
+      <c r="P25" s="86"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="86"/>
+      <c r="T25" s="86"/>
+      <c r="U25" s="86"/>
+      <c r="V25" s="86"/>
+      <c r="W25" s="86"/>
+      <c r="X25" s="86"/>
+      <c r="Y25" s="86"/>
+      <c r="Z25" s="87"/>
       <c r="AB25" s="16"/>
       <c r="AC25" s="21" t="s">
         <v>285</v>
@@ -10816,47 +10816,47 @@
       <c r="AG25" s="21"/>
       <c r="AH25" s="21"/>
     </row>
-    <row r="26" spans="3:34" ht="34.950000000000003" customHeight="1">
-      <c r="C26" s="164">
+    <row r="26" spans="3:34" ht="34.9" customHeight="1">
+      <c r="C26" s="66">
         <v>12</v>
       </c>
-      <c r="D26" s="165" t="s">
+      <c r="D26" s="191" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="166"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="165" t="s">
+      <c r="E26" s="192"/>
+      <c r="F26" s="193"/>
+      <c r="G26" s="191" t="s">
         <v>203</v>
       </c>
-      <c r="H26" s="166"/>
-      <c r="I26" s="167"/>
-      <c r="J26" s="169" t="s">
+      <c r="H26" s="192"/>
+      <c r="I26" s="193"/>
+      <c r="J26" s="199" t="s">
         <v>223</v>
       </c>
-      <c r="K26" s="169"/>
-      <c r="L26" s="169"/>
-      <c r="M26" s="187" t="s">
+      <c r="K26" s="199"/>
+      <c r="L26" s="199"/>
+      <c r="M26" s="203" t="s">
         <v>204</v>
       </c>
-      <c r="N26" s="187"/>
-      <c r="O26" s="187"/>
-      <c r="P26" s="170" t="s">
+      <c r="N26" s="203"/>
+      <c r="O26" s="203"/>
+      <c r="P26" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="Q26" s="169" t="s">
+      <c r="Q26" s="199" t="s">
         <v>224</v>
       </c>
-      <c r="R26" s="169"/>
-      <c r="S26" s="169"/>
-      <c r="T26" s="169" t="s">
+      <c r="R26" s="199"/>
+      <c r="S26" s="199"/>
+      <c r="T26" s="199" t="s">
         <v>225</v>
       </c>
-      <c r="U26" s="169"/>
-      <c r="V26" s="169"/>
-      <c r="W26" s="171"/>
-      <c r="X26" s="172"/>
-      <c r="Y26" s="172"/>
-      <c r="Z26" s="173"/>
+      <c r="U26" s="199"/>
+      <c r="V26" s="199"/>
+      <c r="W26" s="68"/>
+      <c r="X26" s="69"/>
+      <c r="Y26" s="69"/>
+      <c r="Z26" s="70"/>
       <c r="AB26" s="16"/>
       <c r="AC26" s="21" t="s">
         <v>286</v>
@@ -10871,31 +10871,31 @@
       <c r="AG26" s="21"/>
       <c r="AH26" s="21"/>
     </row>
-    <row r="27" spans="3:34" ht="34.950000000000003" customHeight="1">
-      <c r="C27" s="250"/>
-      <c r="D27" s="247"/>
-      <c r="E27" s="247"/>
-      <c r="F27" s="247"/>
-      <c r="G27" s="247"/>
-      <c r="H27" s="247"/>
-      <c r="I27" s="247"/>
-      <c r="J27" s="247"/>
-      <c r="K27" s="247"/>
-      <c r="L27" s="247"/>
-      <c r="M27" s="251"/>
-      <c r="N27" s="251"/>
-      <c r="O27" s="251"/>
-      <c r="P27" s="248"/>
-      <c r="Q27" s="248"/>
-      <c r="R27" s="248"/>
-      <c r="S27" s="248"/>
-      <c r="T27" s="248"/>
-      <c r="U27" s="248"/>
-      <c r="V27" s="248"/>
-      <c r="W27" s="248"/>
-      <c r="X27" s="248"/>
-      <c r="Y27" s="248"/>
-      <c r="Z27" s="249"/>
+    <row r="27" spans="3:34" ht="34.9" customHeight="1">
+      <c r="C27" s="88"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="89"/>
+      <c r="O27" s="89"/>
+      <c r="P27" s="86"/>
+      <c r="Q27" s="86"/>
+      <c r="R27" s="86"/>
+      <c r="S27" s="86"/>
+      <c r="T27" s="86"/>
+      <c r="U27" s="86"/>
+      <c r="V27" s="86"/>
+      <c r="W27" s="86"/>
+      <c r="X27" s="86"/>
+      <c r="Y27" s="86"/>
+      <c r="Z27" s="87"/>
       <c r="AB27" s="16"/>
       <c r="AC27" s="21" t="s">
         <v>287</v>
@@ -10910,47 +10910,47 @@
       <c r="AG27" s="21"/>
       <c r="AH27" s="21"/>
     </row>
-    <row r="28" spans="3:34" ht="34.950000000000003" customHeight="1">
-      <c r="C28" s="164">
+    <row r="28" spans="3:34" ht="34.9" customHeight="1">
+      <c r="C28" s="66">
         <v>13</v>
       </c>
-      <c r="D28" s="165" t="s">
+      <c r="D28" s="191" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="175"/>
-      <c r="F28" s="176"/>
-      <c r="G28" s="165" t="s">
+      <c r="E28" s="200"/>
+      <c r="F28" s="201"/>
+      <c r="G28" s="191" t="s">
         <v>203</v>
       </c>
-      <c r="H28" s="175"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="184" t="s">
+      <c r="H28" s="200"/>
+      <c r="I28" s="201"/>
+      <c r="J28" s="202" t="s">
         <v>226</v>
       </c>
-      <c r="K28" s="169"/>
-      <c r="L28" s="169"/>
-      <c r="M28" s="169" t="s">
+      <c r="K28" s="199"/>
+      <c r="L28" s="199"/>
+      <c r="M28" s="199" t="s">
         <v>84</v>
       </c>
-      <c r="N28" s="169"/>
-      <c r="O28" s="169"/>
-      <c r="P28" s="170" t="s">
+      <c r="N28" s="199"/>
+      <c r="O28" s="199"/>
+      <c r="P28" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="Q28" s="169" t="s">
+      <c r="Q28" s="199" t="s">
         <v>227</v>
       </c>
-      <c r="R28" s="169"/>
-      <c r="S28" s="169"/>
-      <c r="T28" s="184" t="s">
+      <c r="R28" s="199"/>
+      <c r="S28" s="199"/>
+      <c r="T28" s="202" t="s">
         <v>228</v>
       </c>
-      <c r="U28" s="169"/>
-      <c r="V28" s="169"/>
-      <c r="W28" s="171"/>
-      <c r="X28" s="172"/>
-      <c r="Y28" s="172"/>
-      <c r="Z28" s="173"/>
+      <c r="U28" s="199"/>
+      <c r="V28" s="199"/>
+      <c r="W28" s="68"/>
+      <c r="X28" s="69"/>
+      <c r="Y28" s="69"/>
+      <c r="Z28" s="70"/>
       <c r="AB28" s="16"/>
       <c r="AC28" s="21" t="s">
         <v>288</v>
@@ -10965,31 +10965,31 @@
       <c r="AG28" s="21"/>
       <c r="AH28" s="21"/>
     </row>
-    <row r="29" spans="3:34" ht="34.950000000000003" customHeight="1">
-      <c r="C29" s="250"/>
-      <c r="D29" s="247"/>
-      <c r="E29" s="247"/>
-      <c r="F29" s="247"/>
-      <c r="G29" s="247"/>
-      <c r="H29" s="247"/>
-      <c r="I29" s="247"/>
-      <c r="J29" s="247"/>
-      <c r="K29" s="247"/>
-      <c r="L29" s="247"/>
-      <c r="M29" s="251"/>
-      <c r="N29" s="251"/>
-      <c r="O29" s="251"/>
-      <c r="P29" s="248"/>
-      <c r="Q29" s="248"/>
-      <c r="R29" s="248"/>
-      <c r="S29" s="248"/>
-      <c r="T29" s="248"/>
-      <c r="U29" s="248"/>
-      <c r="V29" s="248"/>
-      <c r="W29" s="248"/>
-      <c r="X29" s="248"/>
-      <c r="Y29" s="248"/>
-      <c r="Z29" s="249"/>
+    <row r="29" spans="3:34" ht="34.9" customHeight="1">
+      <c r="C29" s="88"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="89"/>
+      <c r="N29" s="89"/>
+      <c r="O29" s="89"/>
+      <c r="P29" s="86"/>
+      <c r="Q29" s="86"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="86"/>
+      <c r="T29" s="86"/>
+      <c r="U29" s="86"/>
+      <c r="V29" s="86"/>
+      <c r="W29" s="86"/>
+      <c r="X29" s="86"/>
+      <c r="Y29" s="86"/>
+      <c r="Z29" s="87"/>
       <c r="AB29" s="16"/>
       <c r="AC29" s="21" t="s">
         <v>289</v>
@@ -11004,47 +11004,47 @@
       <c r="AG29" s="21"/>
       <c r="AH29" s="21"/>
     </row>
-    <row r="30" spans="3:34" ht="34.950000000000003" customHeight="1">
-      <c r="C30" s="164">
+    <row r="30" spans="3:34" ht="34.9" customHeight="1">
+      <c r="C30" s="66">
         <v>14</v>
       </c>
-      <c r="D30" s="188" t="s">
+      <c r="D30" s="184" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="189"/>
-      <c r="F30" s="190"/>
-      <c r="G30" s="188" t="s">
+      <c r="E30" s="185"/>
+      <c r="F30" s="186"/>
+      <c r="G30" s="184" t="s">
         <v>203</v>
       </c>
-      <c r="H30" s="189"/>
-      <c r="I30" s="190"/>
-      <c r="J30" s="169" t="s">
+      <c r="H30" s="185"/>
+      <c r="I30" s="186"/>
+      <c r="J30" s="199" t="s">
         <v>229</v>
       </c>
-      <c r="K30" s="169"/>
-      <c r="L30" s="169"/>
-      <c r="M30" s="169" t="s">
+      <c r="K30" s="199"/>
+      <c r="L30" s="199"/>
+      <c r="M30" s="199" t="s">
         <v>214</v>
       </c>
-      <c r="N30" s="169"/>
-      <c r="O30" s="169"/>
-      <c r="P30" s="185" t="s">
+      <c r="N30" s="199"/>
+      <c r="O30" s="199"/>
+      <c r="P30" s="71" t="s">
         <v>195</v>
       </c>
-      <c r="Q30" s="169" t="s">
+      <c r="Q30" s="199" t="s">
         <v>230</v>
       </c>
-      <c r="R30" s="169"/>
-      <c r="S30" s="169"/>
-      <c r="T30" s="169" t="s">
+      <c r="R30" s="199"/>
+      <c r="S30" s="199"/>
+      <c r="T30" s="199" t="s">
         <v>231</v>
       </c>
-      <c r="U30" s="169"/>
-      <c r="V30" s="169"/>
-      <c r="W30" s="171"/>
-      <c r="X30" s="172"/>
-      <c r="Y30" s="172"/>
-      <c r="Z30" s="173"/>
+      <c r="U30" s="199"/>
+      <c r="V30" s="199"/>
+      <c r="W30" s="68"/>
+      <c r="X30" s="69"/>
+      <c r="Y30" s="69"/>
+      <c r="Z30" s="70"/>
       <c r="AB30" s="16"/>
       <c r="AC30" s="21" t="s">
         <v>290</v>
@@ -11059,31 +11059,31 @@
       <c r="AG30" s="21"/>
       <c r="AH30" s="21"/>
     </row>
-    <row r="31" spans="3:34" ht="34.950000000000003" customHeight="1">
-      <c r="C31" s="250"/>
-      <c r="D31" s="247"/>
-      <c r="E31" s="247"/>
-      <c r="F31" s="247"/>
-      <c r="G31" s="247"/>
-      <c r="H31" s="247"/>
-      <c r="I31" s="247"/>
-      <c r="J31" s="247"/>
-      <c r="K31" s="247"/>
-      <c r="L31" s="247"/>
-      <c r="M31" s="251"/>
-      <c r="N31" s="251"/>
-      <c r="O31" s="251"/>
-      <c r="P31" s="248"/>
-      <c r="Q31" s="248"/>
-      <c r="R31" s="248"/>
-      <c r="S31" s="248"/>
-      <c r="T31" s="248"/>
-      <c r="U31" s="248"/>
-      <c r="V31" s="248"/>
-      <c r="W31" s="248"/>
-      <c r="X31" s="248"/>
-      <c r="Y31" s="248"/>
-      <c r="Z31" s="249"/>
+    <row r="31" spans="3:34" ht="34.9" customHeight="1">
+      <c r="C31" s="88"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="89"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="86"/>
+      <c r="Q31" s="86"/>
+      <c r="R31" s="86"/>
+      <c r="S31" s="86"/>
+      <c r="T31" s="86"/>
+      <c r="U31" s="86"/>
+      <c r="V31" s="86"/>
+      <c r="W31" s="86"/>
+      <c r="X31" s="86"/>
+      <c r="Y31" s="86"/>
+      <c r="Z31" s="87"/>
       <c r="AB31" s="16"/>
       <c r="AC31" s="21" t="s">
         <v>300</v>
@@ -11098,47 +11098,47 @@
       <c r="AG31" s="21"/>
       <c r="AH31" s="21"/>
     </row>
-    <row r="32" spans="3:34" ht="34.950000000000003" customHeight="1">
-      <c r="C32" s="164">
+    <row r="32" spans="3:34" ht="34.9" customHeight="1">
+      <c r="C32" s="66">
         <v>17</v>
       </c>
-      <c r="D32" s="177" t="s">
+      <c r="D32" s="187" t="s">
         <v>232</v>
       </c>
-      <c r="E32" s="191"/>
-      <c r="F32" s="192"/>
-      <c r="G32" s="177" t="s">
+      <c r="E32" s="188"/>
+      <c r="F32" s="189"/>
+      <c r="G32" s="187" t="s">
         <v>233</v>
       </c>
-      <c r="H32" s="191"/>
-      <c r="I32" s="192"/>
-      <c r="J32" s="159" t="s">
+      <c r="H32" s="188"/>
+      <c r="I32" s="189"/>
+      <c r="J32" s="198" t="s">
         <v>193</v>
       </c>
-      <c r="K32" s="159"/>
-      <c r="L32" s="159"/>
-      <c r="M32" s="181" t="s">
+      <c r="K32" s="198"/>
+      <c r="L32" s="198"/>
+      <c r="M32" s="195" t="s">
         <v>234</v>
       </c>
-      <c r="N32" s="182"/>
-      <c r="O32" s="193"/>
-      <c r="P32" s="170" t="s">
+      <c r="N32" s="196"/>
+      <c r="O32" s="197"/>
+      <c r="P32" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="Q32" s="177" t="s">
+      <c r="Q32" s="187" t="s">
         <v>235</v>
       </c>
-      <c r="R32" s="191"/>
-      <c r="S32" s="192"/>
-      <c r="T32" s="181" t="s">
+      <c r="R32" s="188"/>
+      <c r="S32" s="189"/>
+      <c r="T32" s="195" t="s">
         <v>236</v>
       </c>
-      <c r="U32" s="182"/>
-      <c r="V32" s="193"/>
-      <c r="W32" s="194"/>
-      <c r="X32" s="195"/>
-      <c r="Y32" s="195"/>
-      <c r="Z32" s="196"/>
+      <c r="U32" s="196"/>
+      <c r="V32" s="197"/>
+      <c r="W32" s="72"/>
+      <c r="X32" s="73"/>
+      <c r="Y32" s="73"/>
+      <c r="Z32" s="74"/>
       <c r="AB32" s="16"/>
       <c r="AC32" s="46" t="s">
         <v>128</v>
@@ -11149,47 +11149,47 @@
       <c r="AG32" s="48"/>
       <c r="AH32" s="48"/>
     </row>
-    <row r="33" spans="3:34" ht="34.950000000000003" customHeight="1">
-      <c r="C33" s="164">
+    <row r="33" spans="3:34" ht="34.9" customHeight="1">
+      <c r="C33" s="66">
         <v>18</v>
       </c>
-      <c r="D33" s="165" t="s">
+      <c r="D33" s="191" t="s">
         <v>232</v>
       </c>
-      <c r="E33" s="166"/>
-      <c r="F33" s="167"/>
-      <c r="G33" s="165" t="s">
+      <c r="E33" s="192"/>
+      <c r="F33" s="193"/>
+      <c r="G33" s="191" t="s">
         <v>233</v>
       </c>
-      <c r="H33" s="166"/>
-      <c r="I33" s="167"/>
-      <c r="J33" s="168" t="s">
+      <c r="H33" s="192"/>
+      <c r="I33" s="193"/>
+      <c r="J33" s="194" t="s">
         <v>193</v>
       </c>
-      <c r="K33" s="168"/>
-      <c r="L33" s="168"/>
-      <c r="M33" s="181" t="s">
+      <c r="K33" s="194"/>
+      <c r="L33" s="194"/>
+      <c r="M33" s="195" t="s">
         <v>237</v>
       </c>
-      <c r="N33" s="182"/>
-      <c r="O33" s="193"/>
-      <c r="P33" s="170" t="s">
+      <c r="N33" s="196"/>
+      <c r="O33" s="197"/>
+      <c r="P33" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="Q33" s="177" t="s">
+      <c r="Q33" s="187" t="s">
         <v>238</v>
       </c>
-      <c r="R33" s="191"/>
-      <c r="S33" s="192"/>
-      <c r="T33" s="181" t="s">
+      <c r="R33" s="188"/>
+      <c r="S33" s="189"/>
+      <c r="T33" s="195" t="s">
         <v>239</v>
       </c>
-      <c r="U33" s="182"/>
-      <c r="V33" s="193"/>
-      <c r="W33" s="194"/>
-      <c r="X33" s="195"/>
-      <c r="Y33" s="195"/>
-      <c r="Z33" s="196"/>
+      <c r="U33" s="196"/>
+      <c r="V33" s="197"/>
+      <c r="W33" s="72"/>
+      <c r="X33" s="73"/>
+      <c r="Y33" s="73"/>
+      <c r="Z33" s="74"/>
       <c r="AB33" s="16"/>
       <c r="AC33" s="46" t="s">
         <v>128</v>
@@ -11200,47 +11200,47 @@
       <c r="AG33" s="48"/>
       <c r="AH33" s="48"/>
     </row>
-    <row r="34" spans="3:34" ht="34.950000000000003" customHeight="1">
-      <c r="C34" s="164">
+    <row r="34" spans="3:34" ht="34.9" customHeight="1">
+      <c r="C34" s="66">
         <v>19</v>
       </c>
-      <c r="D34" s="165" t="s">
+      <c r="D34" s="191" t="s">
         <v>232</v>
       </c>
-      <c r="E34" s="166"/>
-      <c r="F34" s="167"/>
-      <c r="G34" s="165" t="s">
+      <c r="E34" s="192"/>
+      <c r="F34" s="193"/>
+      <c r="G34" s="191" t="s">
         <v>233</v>
       </c>
-      <c r="H34" s="166"/>
-      <c r="I34" s="167"/>
-      <c r="J34" s="168" t="s">
+      <c r="H34" s="192"/>
+      <c r="I34" s="193"/>
+      <c r="J34" s="194" t="s">
         <v>193</v>
       </c>
-      <c r="K34" s="168"/>
-      <c r="L34" s="168"/>
-      <c r="M34" s="177" t="s">
+      <c r="K34" s="194"/>
+      <c r="L34" s="194"/>
+      <c r="M34" s="187" t="s">
         <v>240</v>
       </c>
-      <c r="N34" s="191"/>
-      <c r="O34" s="192"/>
-      <c r="P34" s="170" t="s">
+      <c r="N34" s="188"/>
+      <c r="O34" s="189"/>
+      <c r="P34" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="Q34" s="177" t="s">
+      <c r="Q34" s="187" t="s">
         <v>241</v>
       </c>
-      <c r="R34" s="191"/>
-      <c r="S34" s="192"/>
-      <c r="T34" s="181" t="s">
+      <c r="R34" s="188"/>
+      <c r="S34" s="189"/>
+      <c r="T34" s="195" t="s">
         <v>242</v>
       </c>
-      <c r="U34" s="182"/>
-      <c r="V34" s="193"/>
-      <c r="W34" s="197"/>
-      <c r="X34" s="198"/>
-      <c r="Y34" s="198"/>
-      <c r="Z34" s="199"/>
+      <c r="U34" s="196"/>
+      <c r="V34" s="197"/>
+      <c r="W34" s="181"/>
+      <c r="X34" s="182"/>
+      <c r="Y34" s="182"/>
+      <c r="Z34" s="183"/>
       <c r="AB34" s="16"/>
       <c r="AC34" s="46" t="s">
         <v>128</v>
@@ -11251,47 +11251,47 @@
       <c r="AG34" s="48"/>
       <c r="AH34" s="48"/>
     </row>
-    <row r="35" spans="3:34" ht="34.950000000000003" customHeight="1">
-      <c r="C35" s="164">
+    <row r="35" spans="3:34" ht="34.9" customHeight="1">
+      <c r="C35" s="66">
         <v>20</v>
       </c>
-      <c r="D35" s="188" t="s">
+      <c r="D35" s="184" t="s">
         <v>127</v>
       </c>
-      <c r="E35" s="189"/>
-      <c r="F35" s="190"/>
-      <c r="G35" s="188" t="s">
+      <c r="E35" s="185"/>
+      <c r="F35" s="186"/>
+      <c r="G35" s="184" t="s">
         <v>243</v>
       </c>
-      <c r="H35" s="189"/>
-      <c r="I35" s="190"/>
-      <c r="J35" s="177" t="s">
+      <c r="H35" s="185"/>
+      <c r="I35" s="186"/>
+      <c r="J35" s="187" t="s">
         <v>244</v>
       </c>
-      <c r="K35" s="191"/>
-      <c r="L35" s="192"/>
-      <c r="M35" s="177" t="s">
+      <c r="K35" s="188"/>
+      <c r="L35" s="189"/>
+      <c r="M35" s="187" t="s">
         <v>240</v>
       </c>
-      <c r="N35" s="191"/>
-      <c r="O35" s="192"/>
-      <c r="P35" s="170" t="s">
+      <c r="N35" s="188"/>
+      <c r="O35" s="189"/>
+      <c r="P35" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="Q35" s="177" t="s">
+      <c r="Q35" s="187" t="s">
         <v>245</v>
       </c>
-      <c r="R35" s="191"/>
-      <c r="S35" s="192"/>
-      <c r="T35" s="200" t="s">
+      <c r="R35" s="188"/>
+      <c r="S35" s="189"/>
+      <c r="T35" s="190" t="s">
         <v>246</v>
       </c>
-      <c r="U35" s="191"/>
-      <c r="V35" s="192"/>
-      <c r="W35" s="197"/>
-      <c r="X35" s="198"/>
-      <c r="Y35" s="198"/>
-      <c r="Z35" s="199"/>
+      <c r="U35" s="188"/>
+      <c r="V35" s="189"/>
+      <c r="W35" s="181"/>
+      <c r="X35" s="182"/>
+      <c r="Y35" s="182"/>
+      <c r="Z35" s="183"/>
       <c r="AB35" s="16"/>
       <c r="AC35" s="46" t="s">
         <v>128</v>
@@ -11316,13 +11316,13 @@
       <c r="M36" s="44"/>
       <c r="N36" s="44"/>
       <c r="O36" s="44"/>
-      <c r="P36" s="201"/>
+      <c r="P36" s="75"/>
       <c r="Q36" s="44"/>
       <c r="R36" s="44"/>
       <c r="S36" s="44"/>
-      <c r="T36" s="202"/>
-      <c r="U36" s="202"/>
-      <c r="V36" s="202"/>
+      <c r="T36" s="76"/>
+      <c r="U36" s="76"/>
+      <c r="V36" s="76"/>
       <c r="W36" s="43"/>
       <c r="X36" s="44"/>
       <c r="Y36" s="44"/>
@@ -11349,13 +11349,13 @@
       <c r="M37" s="44"/>
       <c r="N37" s="44"/>
       <c r="O37" s="44"/>
-      <c r="P37" s="201"/>
+      <c r="P37" s="75"/>
       <c r="Q37" s="44"/>
       <c r="R37" s="44"/>
       <c r="S37" s="44"/>
-      <c r="T37" s="202"/>
-      <c r="U37" s="202"/>
-      <c r="V37" s="202"/>
+      <c r="T37" s="76"/>
+      <c r="U37" s="76"/>
+      <c r="V37" s="76"/>
       <c r="W37" s="43"/>
       <c r="X37" s="44"/>
       <c r="Y37" s="44"/>
@@ -12094,31 +12094,31 @@
       <c r="AG59" s="19"/>
       <c r="AH59" s="19"/>
     </row>
-    <row r="60" spans="3:34" ht="18.600000000000001" thickBot="1">
+    <row r="60" spans="3:34" ht="15" thickBot="1">
       <c r="C60" s="5"/>
-      <c r="D60" s="97"/>
-      <c r="E60" s="97"/>
-      <c r="F60" s="97"/>
-      <c r="G60" s="97"/>
-      <c r="H60" s="97"/>
-      <c r="I60" s="97"/>
-      <c r="J60" s="97"/>
-      <c r="K60" s="97"/>
-      <c r="L60" s="97"/>
-      <c r="M60" s="97"/>
-      <c r="N60" s="97"/>
-      <c r="O60" s="97"/>
-      <c r="P60" s="97"/>
+      <c r="D60" s="149"/>
+      <c r="E60" s="149"/>
+      <c r="F60" s="149"/>
+      <c r="G60" s="149"/>
+      <c r="H60" s="149"/>
+      <c r="I60" s="149"/>
+      <c r="J60" s="149"/>
+      <c r="K60" s="149"/>
+      <c r="L60" s="149"/>
+      <c r="M60" s="149"/>
+      <c r="N60" s="149"/>
+      <c r="O60" s="149"/>
+      <c r="P60" s="149"/>
       <c r="Q60" s="58"/>
       <c r="R60" s="58"/>
       <c r="S60" s="58"/>
       <c r="T60" s="58"/>
       <c r="U60" s="58"/>
       <c r="V60" s="58"/>
-      <c r="W60" s="97"/>
-      <c r="X60" s="97"/>
-      <c r="Y60" s="97"/>
-      <c r="Z60" s="98"/>
+      <c r="W60" s="149"/>
+      <c r="X60" s="149"/>
+      <c r="Y60" s="149"/>
+      <c r="Z60" s="150"/>
       <c r="AB60" s="16"/>
       <c r="AC60" s="19"/>
       <c r="AD60" s="19"/>
@@ -12145,7 +12145,7 @@
       <c r="AH62" s="19"/>
     </row>
     <row r="63" spans="3:34">
-      <c r="Q63" s="142"/>
+      <c r="Q63" s="63"/>
       <c r="AC63" s="19"/>
       <c r="AD63" s="19"/>
       <c r="AE63" s="19"/>
@@ -12172,6 +12172,115 @@
     <filterColumn colId="22" showButton="0"/>
   </autoFilter>
   <mergeCells count="133">
+    <mergeCell ref="C2:Z2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="R3:Z3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:L6"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:S6"/>
+    <mergeCell ref="T5:V6"/>
+    <mergeCell ref="W5:Z6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T30:V30"/>
     <mergeCell ref="D60:F60"/>
     <mergeCell ref="G60:I60"/>
     <mergeCell ref="J60:L60"/>
@@ -12196,115 +12305,6 @@
     <mergeCell ref="G33:I33"/>
     <mergeCell ref="J33:L33"/>
     <mergeCell ref="M33:O33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:S6"/>
-    <mergeCell ref="T5:V6"/>
-    <mergeCell ref="W5:Z6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="C2:Z2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="R3:Z3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:L6"/>
-    <mergeCell ref="M5:O6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12320,86 +12320,86 @@
       <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="14.69921875" customWidth="1"/>
-    <col min="6" max="7" width="10.19921875" customWidth="1"/>
-    <col min="8" max="8" width="11.19921875" customWidth="1"/>
-    <col min="9" max="9" width="17.19921875" customWidth="1"/>
-    <col min="10" max="11" width="17.69921875" customWidth="1"/>
-    <col min="18" max="18" width="10.8984375" customWidth="1"/>
-    <col min="19" max="19" width="14.19921875" customWidth="1"/>
-    <col min="20" max="20" width="12.19921875" customWidth="1"/>
-    <col min="25" max="25" width="16.8984375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="2.19921875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="30.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="6" max="7" width="10.25" customWidth="1"/>
+    <col min="8" max="8" width="11.25" customWidth="1"/>
+    <col min="9" max="9" width="17.25" customWidth="1"/>
+    <col min="10" max="11" width="17.75" customWidth="1"/>
+    <col min="18" max="18" width="10.875" customWidth="1"/>
+    <col min="19" max="19" width="14.25" customWidth="1"/>
+    <col min="20" max="20" width="12.25" customWidth="1"/>
+    <col min="25" max="25" width="16.875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="2.25" style="1" customWidth="1"/>
+    <col min="27" max="27" width="30.75" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="44.5" style="1" customWidth="1"/>
-    <col min="29" max="29" width="34.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.09765625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="34.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.125" style="1" customWidth="1"/>
     <col min="31" max="31" width="18" style="1" customWidth="1"/>
-    <col min="32" max="32" width="32.296875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="32.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="2:32" ht="47.4" customHeight="1">
-      <c r="B2" s="203" t="s">
+    <row r="1" spans="2:32" ht="15" thickBot="1"/>
+    <row r="2" spans="2:32" ht="47.45" customHeight="1">
+      <c r="B2" s="255" t="s">
         <v>247</v>
       </c>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
-      <c r="J2" s="204"/>
-      <c r="K2" s="204"/>
-      <c r="L2" s="204"/>
-      <c r="M2" s="204"/>
-      <c r="N2" s="204"/>
-      <c r="O2" s="204"/>
-      <c r="P2" s="204"/>
-      <c r="Q2" s="204"/>
-      <c r="R2" s="204"/>
-      <c r="S2" s="204"/>
-      <c r="T2" s="204"/>
-      <c r="U2" s="204"/>
-      <c r="V2" s="204"/>
-      <c r="W2" s="204"/>
-      <c r="X2" s="205"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
+      <c r="H2" s="256"/>
+      <c r="I2" s="256"/>
+      <c r="J2" s="256"/>
+      <c r="K2" s="256"/>
+      <c r="L2" s="256"/>
+      <c r="M2" s="256"/>
+      <c r="N2" s="256"/>
+      <c r="O2" s="256"/>
+      <c r="P2" s="256"/>
+      <c r="Q2" s="256"/>
+      <c r="R2" s="256"/>
+      <c r="S2" s="256"/>
+      <c r="T2" s="256"/>
+      <c r="U2" s="256"/>
+      <c r="V2" s="256"/>
+      <c r="W2" s="256"/>
+      <c r="X2" s="257"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-    </row>
-    <row r="3" spans="2:32" ht="47.4" customHeight="1" thickBot="1">
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="99"/>
+      <c r="AC2" s="99"/>
+      <c r="AD2" s="99"/>
+    </row>
+    <row r="3" spans="2:32" ht="47.45" customHeight="1" thickBot="1">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="171" t="s">
         <v>184</v>
       </c>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="120"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="172"/>
       <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="119" t="s">
+      <c r="H3" s="171" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="119"/>
-      <c r="J3" s="120"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="172"/>
       <c r="K3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="119" t="s">
+      <c r="L3" s="171" t="s">
         <v>183</v>
       </c>
-      <c r="M3" s="119"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="120"/>
+      <c r="M3" s="171"/>
+      <c r="N3" s="171"/>
+      <c r="O3" s="172"/>
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
@@ -12412,12 +12412,12 @@
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
       <c r="Z3" s="16"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="71"/>
-      <c r="AC3" s="71"/>
-      <c r="AD3" s="71"/>
-    </row>
-    <row r="4" spans="2:32" ht="33" thickBot="1">
+      <c r="AA3" s="99"/>
+      <c r="AB3" s="99"/>
+      <c r="AC3" s="99"/>
+      <c r="AD3" s="99"/>
+    </row>
+    <row r="4" spans="2:32" ht="26.25" thickBot="1">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -12434,9 +12434,9 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="142"/>
-      <c r="S4" s="142"/>
-      <c r="T4" s="142"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -12451,71 +12451,71 @@
       <c r="AB4" s="17"/>
     </row>
     <row r="5" spans="2:32">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="206" t="s">
+      <c r="C5" s="239" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="206"/>
-      <c r="E5" s="206"/>
-      <c r="F5" s="206" t="s">
+      <c r="D5" s="239"/>
+      <c r="E5" s="239"/>
+      <c r="F5" s="239" t="s">
         <v>186</v>
       </c>
-      <c r="G5" s="206"/>
-      <c r="H5" s="206"/>
-      <c r="I5" s="206" t="s">
+      <c r="G5" s="239"/>
+      <c r="H5" s="239"/>
+      <c r="I5" s="239" t="s">
         <v>187</v>
       </c>
-      <c r="J5" s="206"/>
-      <c r="K5" s="206"/>
-      <c r="L5" s="206" t="s">
+      <c r="J5" s="239"/>
+      <c r="K5" s="239"/>
+      <c r="L5" s="239" t="s">
         <v>248</v>
       </c>
-      <c r="M5" s="206"/>
-      <c r="N5" s="206"/>
-      <c r="O5" s="206" t="s">
+      <c r="M5" s="239"/>
+      <c r="N5" s="239"/>
+      <c r="O5" s="239" t="s">
         <v>190</v>
       </c>
-      <c r="P5" s="206"/>
-      <c r="Q5" s="206"/>
-      <c r="R5" s="206" t="s">
+      <c r="P5" s="239"/>
+      <c r="Q5" s="239"/>
+      <c r="R5" s="239" t="s">
         <v>191</v>
       </c>
-      <c r="S5" s="206"/>
-      <c r="T5" s="206"/>
-      <c r="U5" s="206" t="s">
+      <c r="S5" s="239"/>
+      <c r="T5" s="239"/>
+      <c r="U5" s="239" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="206"/>
-      <c r="W5" s="206"/>
-      <c r="X5" s="207"/>
+      <c r="V5" s="239"/>
+      <c r="W5" s="239"/>
+      <c r="X5" s="241"/>
       <c r="Z5" s="16"/>
     </row>
-    <row r="6" spans="2:32" ht="18.600000000000001" thickBot="1">
-      <c r="B6" s="108"/>
-      <c r="C6" s="208"/>
-      <c r="D6" s="208"/>
-      <c r="E6" s="208"/>
-      <c r="F6" s="208"/>
-      <c r="G6" s="208"/>
-      <c r="H6" s="208"/>
-      <c r="I6" s="208"/>
-      <c r="J6" s="208"/>
-      <c r="K6" s="208"/>
-      <c r="L6" s="208"/>
-      <c r="M6" s="208"/>
-      <c r="N6" s="208"/>
-      <c r="O6" s="208"/>
-      <c r="P6" s="208"/>
-      <c r="Q6" s="208"/>
-      <c r="R6" s="208"/>
-      <c r="S6" s="208"/>
-      <c r="T6" s="208"/>
-      <c r="U6" s="208"/>
-      <c r="V6" s="208"/>
-      <c r="W6" s="208"/>
-      <c r="X6" s="209"/>
+    <row r="6" spans="2:32" ht="15" thickBot="1">
+      <c r="B6" s="128"/>
+      <c r="C6" s="240"/>
+      <c r="D6" s="240"/>
+      <c r="E6" s="240"/>
+      <c r="F6" s="240"/>
+      <c r="G6" s="240"/>
+      <c r="H6" s="240"/>
+      <c r="I6" s="240"/>
+      <c r="J6" s="240"/>
+      <c r="K6" s="240"/>
+      <c r="L6" s="240"/>
+      <c r="M6" s="240"/>
+      <c r="N6" s="240"/>
+      <c r="O6" s="240"/>
+      <c r="P6" s="240"/>
+      <c r="Q6" s="240"/>
+      <c r="R6" s="240"/>
+      <c r="S6" s="240"/>
+      <c r="T6" s="240"/>
+      <c r="U6" s="240"/>
+      <c r="V6" s="240"/>
+      <c r="W6" s="240"/>
+      <c r="X6" s="242"/>
       <c r="Z6" s="16"/>
       <c r="AA6" s="20" t="s">
         <v>105</v>
@@ -12537,43 +12537,43 @@
       </c>
     </row>
     <row r="7" spans="2:32" ht="84.6" customHeight="1">
-      <c r="B7" s="210">
+      <c r="B7" s="77">
         <v>1</v>
       </c>
-      <c r="C7" s="211" t="s">
+      <c r="C7" s="243" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="212"/>
-      <c r="E7" s="213"/>
-      <c r="F7" s="211" t="s">
+      <c r="D7" s="244"/>
+      <c r="E7" s="245"/>
+      <c r="F7" s="243" t="s">
         <v>192</v>
       </c>
-      <c r="G7" s="212"/>
-      <c r="H7" s="213"/>
-      <c r="I7" s="214" t="s">
+      <c r="G7" s="244"/>
+      <c r="H7" s="245"/>
+      <c r="I7" s="236" t="s">
         <v>249</v>
       </c>
-      <c r="J7" s="215"/>
-      <c r="K7" s="216"/>
-      <c r="L7" s="217" t="s">
+      <c r="J7" s="246"/>
+      <c r="K7" s="247"/>
+      <c r="L7" s="248" t="s">
         <v>250</v>
       </c>
-      <c r="M7" s="218"/>
-      <c r="N7" s="219"/>
-      <c r="O7" s="214" t="s">
+      <c r="M7" s="249"/>
+      <c r="N7" s="250"/>
+      <c r="O7" s="236" t="s">
         <v>251</v>
       </c>
-      <c r="P7" s="215"/>
-      <c r="Q7" s="216"/>
-      <c r="R7" s="220" t="s">
+      <c r="P7" s="246"/>
+      <c r="Q7" s="247"/>
+      <c r="R7" s="230" t="s">
         <v>252</v>
       </c>
-      <c r="S7" s="198"/>
-      <c r="T7" s="221"/>
-      <c r="U7" s="222"/>
-      <c r="V7" s="223"/>
-      <c r="W7" s="223"/>
-      <c r="X7" s="224"/>
+      <c r="S7" s="182"/>
+      <c r="T7" s="251"/>
+      <c r="U7" s="252"/>
+      <c r="V7" s="253"/>
+      <c r="W7" s="253"/>
+      <c r="X7" s="254"/>
       <c r="Z7" s="16"/>
       <c r="AA7" s="46" t="s">
         <v>128</v>
@@ -12585,43 +12585,43 @@
       <c r="AF7" s="48"/>
     </row>
     <row r="8" spans="2:32" ht="84.6" customHeight="1">
-      <c r="B8" s="210">
+      <c r="B8" s="77">
         <v>2</v>
       </c>
-      <c r="C8" s="225" t="s">
+      <c r="C8" s="233" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="226"/>
-      <c r="E8" s="227"/>
-      <c r="F8" s="225" t="s">
+      <c r="D8" s="234"/>
+      <c r="E8" s="235"/>
+      <c r="F8" s="233" t="s">
         <v>203</v>
       </c>
-      <c r="G8" s="226"/>
-      <c r="H8" s="227"/>
-      <c r="I8" s="220" t="s">
+      <c r="G8" s="234"/>
+      <c r="H8" s="235"/>
+      <c r="I8" s="230" t="s">
         <v>253</v>
       </c>
-      <c r="J8" s="228"/>
-      <c r="K8" s="229"/>
-      <c r="L8" s="220" t="s">
+      <c r="J8" s="231"/>
+      <c r="K8" s="232"/>
+      <c r="L8" s="230" t="s">
         <v>204</v>
       </c>
-      <c r="M8" s="228"/>
-      <c r="N8" s="229"/>
-      <c r="O8" s="214" t="s">
+      <c r="M8" s="231"/>
+      <c r="N8" s="232"/>
+      <c r="O8" s="236" t="s">
         <v>254</v>
       </c>
-      <c r="P8" s="230"/>
-      <c r="Q8" s="231"/>
-      <c r="R8" s="220" t="s">
+      <c r="P8" s="237"/>
+      <c r="Q8" s="238"/>
+      <c r="R8" s="230" t="s">
         <v>255</v>
       </c>
-      <c r="S8" s="228"/>
-      <c r="T8" s="229"/>
-      <c r="U8" s="232"/>
-      <c r="V8" s="233"/>
-      <c r="W8" s="233"/>
-      <c r="X8" s="234"/>
+      <c r="S8" s="231"/>
+      <c r="T8" s="232"/>
+      <c r="U8" s="79"/>
+      <c r="V8" s="80"/>
+      <c r="W8" s="80"/>
+      <c r="X8" s="81"/>
       <c r="Z8" s="16"/>
       <c r="AA8" s="21" t="s">
         <v>301</v>
@@ -12637,29 +12637,29 @@
       <c r="AF8" s="19"/>
     </row>
     <row r="9" spans="2:32" ht="84.6" customHeight="1">
-      <c r="B9" s="256"/>
-      <c r="C9" s="257"/>
-      <c r="D9" s="257"/>
-      <c r="E9" s="257"/>
-      <c r="F9" s="257"/>
-      <c r="G9" s="257"/>
-      <c r="H9" s="257"/>
-      <c r="I9" s="252"/>
-      <c r="J9" s="252"/>
-      <c r="K9" s="252"/>
-      <c r="L9" s="252"/>
-      <c r="M9" s="252"/>
-      <c r="N9" s="252"/>
-      <c r="O9" s="253"/>
-      <c r="P9" s="253"/>
-      <c r="Q9" s="253"/>
-      <c r="R9" s="252"/>
-      <c r="S9" s="252"/>
-      <c r="T9" s="252"/>
-      <c r="U9" s="254"/>
-      <c r="V9" s="254"/>
-      <c r="W9" s="254"/>
-      <c r="X9" s="255"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="92"/>
+      <c r="V9" s="92"/>
+      <c r="W9" s="92"/>
+      <c r="X9" s="93"/>
       <c r="Z9" s="16"/>
       <c r="AA9" s="21" t="s">
         <v>302</v>
@@ -12675,41 +12675,41 @@
       <c r="AF9" s="19"/>
     </row>
     <row r="10" spans="2:32" ht="84.6" customHeight="1">
-      <c r="B10" s="235">
+      <c r="B10" s="83">
         <v>3</v>
       </c>
-      <c r="C10" s="197" t="s">
+      <c r="C10" s="181" t="s">
         <v>232</v>
       </c>
-      <c r="D10" s="236"/>
-      <c r="E10" s="237"/>
-      <c r="F10" s="197" t="s">
+      <c r="D10" s="228"/>
+      <c r="E10" s="229"/>
+      <c r="F10" s="181" t="s">
         <v>243</v>
       </c>
-      <c r="G10" s="236"/>
-      <c r="H10" s="237"/>
-      <c r="I10" s="220" t="s">
+      <c r="G10" s="228"/>
+      <c r="H10" s="229"/>
+      <c r="I10" s="230" t="s">
         <v>256</v>
       </c>
-      <c r="J10" s="228"/>
-      <c r="K10" s="229"/>
-      <c r="L10" s="220" t="s">
+      <c r="J10" s="231"/>
+      <c r="K10" s="232"/>
+      <c r="L10" s="230" t="s">
         <v>234</v>
       </c>
-      <c r="M10" s="228"/>
-      <c r="N10" s="229"/>
-      <c r="O10" s="220" t="s">
+      <c r="M10" s="231"/>
+      <c r="N10" s="232"/>
+      <c r="O10" s="230" t="s">
         <v>257</v>
       </c>
-      <c r="P10" s="228"/>
-      <c r="Q10" s="229"/>
-      <c r="R10" s="220"/>
-      <c r="S10" s="228"/>
-      <c r="T10" s="229"/>
-      <c r="U10" s="238"/>
-      <c r="V10" s="239"/>
-      <c r="W10" s="239"/>
-      <c r="X10" s="240"/>
+      <c r="P10" s="231"/>
+      <c r="Q10" s="232"/>
+      <c r="R10" s="230"/>
+      <c r="S10" s="231"/>
+      <c r="T10" s="232"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="84"/>
       <c r="Z10" s="16"/>
       <c r="AA10" s="46" t="s">
         <v>128</v>
@@ -13206,6 +13206,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B2:X2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="L5:N6"/>
+    <mergeCell ref="U5:X6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="U7:X7"/>
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="AA2:AD3"/>
     <mergeCell ref="C10:E10"/>
@@ -13222,22 +13238,6 @@
     <mergeCell ref="R8:T8"/>
     <mergeCell ref="O5:Q6"/>
     <mergeCell ref="R5:T6"/>
-    <mergeCell ref="U5:X6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="B2:X2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:E6"/>
-    <mergeCell ref="F5:H6"/>
-    <mergeCell ref="I5:K6"/>
-    <mergeCell ref="L5:N6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
